--- a/History/FR/history_21.xlsx
+++ b/History/FR/history_21.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://o365khu-my.sharepoint.com/personal/dns0191_office_khu_ac_kr/Documents/연구/Code_PKE_test_explicit_2/History/FR/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\Programs\Reactivity_Analyzer\C++\Euler\History\FR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="38" documentId="11_AD4D066CA252ABDACC10480219235C1B48B8DF51" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1B795159-8F40-48E7-90CC-5C24E12AE347}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19376D7B-8FA8-4EC8-B11D-B7A52A5ADD9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1860" yWindow="1860" windowWidth="10980" windowHeight="9880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Time</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -57,6 +57,10 @@
   </si>
   <si>
     <t>Power</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ch#4</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -446,7 +450,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G9301"/>
+  <dimension ref="A1:H9301"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:D135"/>
@@ -457,7 +461,7 @@
     <col min="7" max="7" width="11.9140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -476,8 +480,11 @@
       <c r="G1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A2" s="4">
         <v>0</v>
       </c>
@@ -487,8 +494,8 @@
       <c r="C2" s="3">
         <v>22.62</v>
       </c>
-      <c r="D2" s="2">
-        <v>2.5556419999999999E-9</v>
+      <c r="D2">
+        <v>5.62889E-10</v>
       </c>
       <c r="F2" s="2">
         <v>2.5556419999999999E-9</v>
@@ -496,8 +503,11 @@
       <c r="G2" s="5">
         <v>12.25</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H2">
+        <v>5.62889E-10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A3" s="4">
         <v>1</v>
       </c>
@@ -507,8 +517,8 @@
       <c r="C3" s="3">
         <v>22.62</v>
       </c>
-      <c r="D3" s="2">
-        <v>1.98381E-9</v>
+      <c r="D3">
+        <v>5.63311E-10</v>
       </c>
       <c r="F3" s="2">
         <v>1.98381E-9</v>
@@ -516,8 +526,11 @@
       <c r="G3" s="5">
         <v>12.2</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H3">
+        <v>5.63311E-10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A4" s="4">
         <v>2</v>
       </c>
@@ -527,8 +540,8 @@
       <c r="C4" s="3">
         <v>22.62</v>
       </c>
-      <c r="D4" s="2">
-        <v>2.483133E-9</v>
+      <c r="D4">
+        <v>5.64335E-10</v>
       </c>
       <c r="F4" s="2">
         <v>2.483133E-9</v>
@@ -536,8 +549,11 @@
       <c r="G4" s="5">
         <v>12.65</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H4">
+        <v>5.64335E-10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A5" s="4">
         <v>3</v>
       </c>
@@ -547,8 +563,8 @@
       <c r="C5" s="3">
         <v>22.62</v>
       </c>
-      <c r="D5" s="2">
-        <v>1.8197009999999999E-9</v>
+      <c r="D5">
+        <v>5.6599699999999998E-10</v>
       </c>
       <c r="F5" s="2">
         <v>1.8197009999999999E-9</v>
@@ -556,8 +572,11 @@
       <c r="G5" s="5">
         <v>12.5</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H5">
+        <v>5.6599699999999998E-10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A6" s="4">
         <v>4</v>
       </c>
@@ -567,8 +586,8 @@
       <c r="C6" s="3">
         <v>22.62</v>
       </c>
-      <c r="D6" s="2">
-        <v>2.1379620000000001E-9</v>
+      <c r="D6">
+        <v>5.6721900000000002E-10</v>
       </c>
       <c r="F6" s="2">
         <v>2.1379620000000001E-9</v>
@@ -576,8 +595,11 @@
       <c r="G6" s="5">
         <v>12.55</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H6">
+        <v>5.6721900000000002E-10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A7" s="4">
         <v>5</v>
       </c>
@@ -587,8 +609,8 @@
       <c r="C7" s="3">
         <v>22.62</v>
       </c>
-      <c r="D7" s="2">
-        <v>1.2735029999999999E-9</v>
+      <c r="D7">
+        <v>5.6839000000000004E-10</v>
       </c>
       <c r="F7" s="2">
         <v>1.2735029999999999E-9</v>
@@ -596,8 +618,11 @@
       <c r="G7" s="5">
         <v>12.45</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H7">
+        <v>5.6839000000000004E-10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A8" s="4">
         <v>6</v>
       </c>
@@ -607,8 +632,8 @@
       <c r="C8" s="3">
         <v>22.62</v>
       </c>
-      <c r="D8" s="2">
-        <v>2.3713739999999999E-9</v>
+      <c r="D8">
+        <v>5.6902500000000001E-10</v>
       </c>
       <c r="F8" s="2">
         <v>2.3713739999999999E-9</v>
@@ -616,8 +641,11 @@
       <c r="G8" s="5">
         <v>13.1</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H8">
+        <v>5.6902500000000001E-10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A9" s="4">
         <v>7</v>
       </c>
@@ -627,8 +655,8 @@
       <c r="C9" s="3">
         <v>22.62</v>
       </c>
-      <c r="D9" s="2">
-        <v>2.9174269999999998E-9</v>
+      <c r="D9">
+        <v>5.70193E-10</v>
       </c>
       <c r="F9" s="2">
         <v>2.9174269999999998E-9</v>
@@ -636,8 +664,11 @@
       <c r="G9" s="5">
         <v>12.65</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H9">
+        <v>5.70193E-10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A10" s="4">
         <v>8</v>
       </c>
@@ -647,8 +678,8 @@
       <c r="C10" s="3">
         <v>22.62</v>
       </c>
-      <c r="D10" s="2">
-        <v>2.2130950000000002E-9</v>
+      <c r="D10">
+        <v>5.7173399999999998E-10</v>
       </c>
       <c r="F10" s="2">
         <v>2.2130950000000002E-9</v>
@@ -656,8 +687,11 @@
       <c r="G10" s="5">
         <v>13</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H10">
+        <v>5.7173399999999998E-10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A11" s="4">
         <v>9</v>
       </c>
@@ -667,8 +701,8 @@
       <c r="C11" s="3">
         <v>22.62</v>
       </c>
-      <c r="D11" s="2">
-        <v>2.5703960000000001E-9</v>
+      <c r="D11">
+        <v>5.7327100000000004E-10</v>
       </c>
       <c r="F11" s="2">
         <v>2.5703960000000001E-9</v>
@@ -676,8 +710,11 @@
       <c r="G11" s="5">
         <v>13.9</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H11">
+        <v>5.7327100000000004E-10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A12" s="4">
         <v>10</v>
       </c>
@@ -687,8 +724,8 @@
       <c r="C12" s="3">
         <v>22.62</v>
       </c>
-      <c r="D12" s="2">
-        <v>1.9275249999999999E-9</v>
+      <c r="D12">
+        <v>5.7505699999999995E-10</v>
       </c>
       <c r="F12" s="2">
         <v>1.9275249999999999E-9</v>
@@ -696,8 +733,11 @@
       <c r="G12" s="5">
         <v>13.05</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H12">
+        <v>5.7505699999999995E-10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A13" s="4">
         <v>11</v>
       </c>
@@ -707,8 +747,8 @@
       <c r="C13" s="3">
         <v>22.62</v>
       </c>
-      <c r="D13" s="2">
-        <v>2.5703960000000001E-9</v>
+      <c r="D13">
+        <v>5.7685599999999998E-10</v>
       </c>
       <c r="F13" s="2">
         <v>2.5703960000000001E-9</v>
@@ -716,8 +756,11 @@
       <c r="G13" s="5">
         <v>14.55</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H13">
+        <v>5.7685599999999998E-10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A14" s="4">
         <v>12</v>
       </c>
@@ -727,8 +770,8 @@
       <c r="C14" s="3">
         <v>22.62</v>
       </c>
-      <c r="D14" s="2">
-        <v>1.3724609999999999E-9</v>
+      <c r="D14">
+        <v>5.7959800000000003E-10</v>
       </c>
       <c r="F14" s="2">
         <v>1.3724609999999999E-9</v>
@@ -736,8 +779,11 @@
       <c r="G14" s="5">
         <v>13.2</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H14">
+        <v>5.7959800000000003E-10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A15" s="4">
         <v>13</v>
       </c>
@@ -747,8 +793,8 @@
       <c r="C15" s="3">
         <v>22.62</v>
       </c>
-      <c r="D15" s="2">
-        <v>2.630268E-9</v>
+      <c r="D15">
+        <v>5.8181700000000004E-10</v>
       </c>
       <c r="F15" s="2">
         <v>2.630268E-9</v>
@@ -756,8 +802,11 @@
       <c r="G15" s="5">
         <v>14.7</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H15">
+        <v>5.8181700000000004E-10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A16" s="4">
         <v>14</v>
       </c>
@@ -767,8 +816,8 @@
       <c r="C16" s="3">
         <v>22.62</v>
       </c>
-      <c r="D16" s="2">
-        <v>2.3173949999999999E-9</v>
+      <c r="D16">
+        <v>5.8412800000000001E-10</v>
       </c>
       <c r="F16" s="2">
         <v>2.3173949999999999E-9</v>
@@ -776,8 +825,11 @@
       <c r="G16" s="5">
         <v>13.4</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H16">
+        <v>5.8412800000000001E-10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A17" s="4">
         <v>15</v>
       </c>
@@ -787,8 +839,8 @@
       <c r="C17" s="3">
         <v>22.62</v>
       </c>
-      <c r="D17" s="2">
-        <v>2.3040930000000002E-9</v>
+      <c r="D17">
+        <v>5.8761799999999997E-10</v>
       </c>
       <c r="F17" s="2">
         <v>2.3040930000000002E-9</v>
@@ -796,8 +848,11 @@
       <c r="G17" s="5">
         <v>15.75</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H17">
+        <v>5.8761799999999997E-10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A18" s="4">
         <v>16</v>
       </c>
@@ -807,8 +862,8 @@
       <c r="C18" s="3">
         <v>22.62</v>
       </c>
-      <c r="D18" s="2">
-        <v>1.7179080000000001E-9</v>
+      <c r="D18">
+        <v>5.9150999999999996E-10</v>
       </c>
       <c r="F18" s="2">
         <v>1.7179080000000001E-9</v>
@@ -816,8 +871,11 @@
       <c r="G18" s="5">
         <v>13.7</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H18">
+        <v>5.9150999999999996E-10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A19" s="4">
         <v>17</v>
       </c>
@@ -827,8 +885,8 @@
       <c r="C19" s="3">
         <v>22.62</v>
       </c>
-      <c r="D19" s="2">
-        <v>2.1627189999999998E-9</v>
+      <c r="D19">
+        <v>5.9417599999999998E-10</v>
       </c>
       <c r="F19" s="2">
         <v>2.1627189999999998E-9</v>
@@ -836,8 +894,11 @@
       <c r="G19" s="5">
         <v>13.95</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H19">
+        <v>5.9417599999999998E-10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A20" s="4">
         <v>18</v>
       </c>
@@ -847,8 +908,8 @@
       <c r="C20" s="3">
         <v>22.62</v>
       </c>
-      <c r="D20" s="2">
-        <v>2.9174269999999998E-9</v>
+      <c r="D20">
+        <v>5.98253E-10</v>
       </c>
       <c r="F20" s="2">
         <v>2.9174269999999998E-9</v>
@@ -856,8 +917,11 @@
       <c r="G20" s="5">
         <v>14.45</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H20">
+        <v>5.98253E-10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A21" s="4">
         <v>19</v>
       </c>
@@ -867,8 +931,8 @@
       <c r="C21" s="3">
         <v>22.62</v>
       </c>
-      <c r="D21" s="2">
-        <v>1.5940429999999999E-9</v>
+      <c r="D21">
+        <v>6.0187499999999995E-10</v>
       </c>
       <c r="F21" s="2">
         <v>1.5940429999999999E-9</v>
@@ -876,8 +940,11 @@
       <c r="G21" s="5">
         <v>14.45</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H21">
+        <v>6.0187499999999995E-10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A22" s="4">
         <v>20</v>
       </c>
@@ -887,8 +954,8 @@
       <c r="C22" s="3">
         <v>22.62</v>
       </c>
-      <c r="D22" s="2">
-        <v>2.8510180000000001E-9</v>
+      <c r="D22">
+        <v>6.0589500000000001E-10</v>
       </c>
       <c r="F22" s="2">
         <v>2.8510180000000001E-9</v>
@@ -896,8 +963,11 @@
       <c r="G22" s="5">
         <v>21.75</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H22">
+        <v>6.0589500000000001E-10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A23" s="4">
         <v>21</v>
       </c>
@@ -907,8 +977,8 @@
       <c r="C23" s="3">
         <v>22.62</v>
       </c>
-      <c r="D23" s="2">
-        <v>2.0417379999999998E-9</v>
+      <c r="D23">
+        <v>6.1080799999999997E-10</v>
       </c>
       <c r="F23" s="2">
         <v>2.0417379999999998E-9</v>
@@ -916,8 +986,11 @@
       <c r="G23" s="5">
         <v>16.75</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H23">
+        <v>6.1080799999999997E-10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A24" s="4">
         <v>22</v>
       </c>
@@ -927,8 +1000,8 @@
       <c r="C24" s="3">
         <v>22.62</v>
       </c>
-      <c r="D24" s="2">
-        <v>2.4547090000000002E-9</v>
+      <c r="D24">
+        <v>6.1604800000000004E-10</v>
       </c>
       <c r="F24" s="2">
         <v>2.4547090000000002E-9</v>
@@ -936,8 +1009,11 @@
       <c r="G24" s="5">
         <v>15.8</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H24">
+        <v>6.1604800000000004E-10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A25" s="4">
         <v>23</v>
       </c>
@@ -947,8 +1023,8 @@
       <c r="C25" s="3">
         <v>22.62</v>
       </c>
-      <c r="D25" s="2">
-        <v>1.575796E-9</v>
+      <c r="D25">
+        <v>6.1997500000000002E-10</v>
       </c>
       <c r="F25" s="2">
         <v>1.575796E-9</v>
@@ -956,8 +1032,11 @@
       <c r="G25" s="5">
         <v>15.85</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H25">
+        <v>6.1997500000000002E-10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A26" s="4">
         <v>24</v>
       </c>
@@ -967,8 +1046,8 @@
       <c r="C26" s="3">
         <v>22.62</v>
       </c>
-      <c r="D26" s="2">
-        <v>2.3713739999999999E-9</v>
+      <c r="D26">
+        <v>6.2541000000000001E-10</v>
       </c>
       <c r="F26" s="2">
         <v>2.3713739999999999E-9</v>
@@ -976,8 +1055,11 @@
       <c r="G26" s="5">
         <v>19.2</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H26">
+        <v>6.2541000000000001E-10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A27" s="4">
         <v>25</v>
       </c>
@@ -987,8 +1069,8 @@
       <c r="C27" s="3">
         <v>22.62</v>
       </c>
-      <c r="D27" s="2">
-        <v>2.8183830000000001E-9</v>
+      <c r="D27">
+        <v>6.3134799999999998E-10</v>
       </c>
       <c r="F27" s="2">
         <v>2.8183830000000001E-9</v>
@@ -996,8 +1078,11 @@
       <c r="G27" s="5">
         <v>16.899999999999999</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H27">
+        <v>6.3134799999999998E-10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A28" s="4">
         <v>26</v>
       </c>
@@ -1007,8 +1092,8 @@
       <c r="C28" s="3">
         <v>22.62</v>
       </c>
-      <c r="D28" s="2">
-        <v>2.4266100000000002E-9</v>
+      <c r="D28">
+        <v>6.3770899999999995E-10</v>
       </c>
       <c r="F28" s="2">
         <v>2.4266100000000002E-9</v>
@@ -1016,8 +1101,11 @@
       <c r="G28" s="5">
         <v>18.45</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H28">
+        <v>6.3770899999999995E-10</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A29" s="4">
         <v>27</v>
       </c>
@@ -1027,8 +1115,8 @@
       <c r="C29" s="3">
         <v>22.62</v>
       </c>
-      <c r="D29" s="2">
-        <v>3.3884420000000002E-9</v>
+      <c r="D29">
+        <v>6.46115E-10</v>
       </c>
       <c r="F29" s="2">
         <v>3.3884420000000002E-9</v>
@@ -1036,8 +1124,11 @@
       <c r="G29" s="5">
         <v>17.850000000000001</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H29">
+        <v>6.46115E-10</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A30" s="4">
         <v>28</v>
       </c>
@@ -1047,8 +1138,8 @@
       <c r="C30" s="3">
         <v>22.62</v>
       </c>
-      <c r="D30" s="2">
-        <v>2.676086E-9</v>
+      <c r="D30">
+        <v>6.5357000000000005E-10</v>
       </c>
       <c r="F30" s="2">
         <v>2.676086E-9</v>
@@ -1056,8 +1147,11 @@
       <c r="G30" s="5">
         <v>19.600000000000001</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H30">
+        <v>6.5357000000000005E-10</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A31" s="4">
         <v>29</v>
       </c>
@@ -1067,8 +1161,8 @@
       <c r="C31" s="3">
         <v>22.62</v>
       </c>
-      <c r="D31" s="2">
-        <v>3.3689920000000002E-9</v>
+      <c r="D31">
+        <v>6.6367000000000005E-10</v>
       </c>
       <c r="F31" s="2">
         <v>3.3689920000000002E-9</v>
@@ -1076,8 +1170,11 @@
       <c r="G31" s="5">
         <v>19.899999999999999</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H31">
+        <v>6.6367000000000005E-10</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A32" s="4">
         <v>30</v>
       </c>
@@ -1087,8 +1184,8 @@
       <c r="C32" s="3">
         <v>22.62</v>
       </c>
-      <c r="D32" s="2">
-        <v>2.630268E-9</v>
+      <c r="D32">
+        <v>6.7550400000000003E-10</v>
       </c>
       <c r="F32" s="2">
         <v>2.630268E-9</v>
@@ -1096,8 +1193,11 @@
       <c r="G32" s="5">
         <v>20.100000000000001</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H32">
+        <v>6.7550400000000003E-10</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A33" s="4">
         <v>31</v>
       </c>
@@ -1107,8 +1207,8 @@
       <c r="C33" s="3">
         <v>22.62</v>
       </c>
-      <c r="D33" s="2">
-        <v>3.180534E-9</v>
+      <c r="D33">
+        <v>6.8788799999999997E-10</v>
       </c>
       <c r="F33" s="2">
         <v>3.180534E-9</v>
@@ -1116,8 +1216,11 @@
       <c r="G33" s="5">
         <v>20.6</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H33">
+        <v>6.8788799999999997E-10</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A34" s="4">
         <v>32</v>
       </c>
@@ -1127,8 +1230,8 @@
       <c r="C34" s="3">
         <v>22.62</v>
       </c>
-      <c r="D34" s="2">
-        <v>2.4974679999999998E-9</v>
+      <c r="D34">
+        <v>7.0175300000000001E-10</v>
       </c>
       <c r="F34" s="2">
         <v>2.4974679999999998E-9</v>
@@ -1136,8 +1239,11 @@
       <c r="G34" s="5">
         <v>21.05</v>
       </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H34">
+        <v>7.0175300000000001E-10</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A35" s="4">
         <v>33</v>
       </c>
@@ -1147,8 +1253,8 @@
       <c r="C35" s="3">
         <v>22.62</v>
       </c>
-      <c r="D35" s="2">
-        <v>3.507519E-9</v>
+      <c r="D35">
+        <v>7.1647599999999996E-10</v>
       </c>
       <c r="F35" s="2">
         <v>3.507519E-9</v>
@@ -1156,8 +1262,11 @@
       <c r="G35" s="5">
         <v>22.6</v>
       </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H35">
+        <v>7.1647599999999996E-10</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A36" s="4">
         <v>34</v>
       </c>
@@ -1167,8 +1276,8 @@
       <c r="C36" s="3">
         <v>22.62</v>
       </c>
-      <c r="D36" s="2">
-        <v>2.2130950000000002E-9</v>
+      <c r="D36">
+        <v>7.2927799999999997E-10</v>
       </c>
       <c r="F36" s="2">
         <v>2.2130950000000002E-9</v>
@@ -1176,8 +1285,11 @@
       <c r="G36" s="5">
         <v>24.15</v>
       </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H36">
+        <v>7.2927799999999997E-10</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A37" s="4">
         <v>35</v>
       </c>
@@ -1187,8 +1299,8 @@
       <c r="C37" s="3">
         <v>22.62</v>
       </c>
-      <c r="D37" s="2">
-        <v>3.5892189999999998E-9</v>
+      <c r="D37">
+        <v>7.4928799999999999E-10</v>
       </c>
       <c r="F37" s="2">
         <v>3.5892189999999998E-9</v>
@@ -1196,8 +1308,11 @@
       <c r="G37" s="5">
         <v>25.95</v>
       </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H37">
+        <v>7.4928799999999999E-10</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A38" s="4">
         <v>36</v>
       </c>
@@ -1207,8 +1322,8 @@
       <c r="C38" s="3">
         <v>22.62</v>
       </c>
-      <c r="D38" s="2">
-        <v>3.2359370000000002E-9</v>
+      <c r="D38">
+        <v>7.7029100000000004E-10</v>
       </c>
       <c r="F38" s="2">
         <v>3.2359370000000002E-9</v>
@@ -1216,8 +1331,11 @@
       <c r="G38" s="5">
         <v>24.8</v>
       </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H38">
+        <v>7.7029100000000004E-10</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A39" s="4">
         <v>37</v>
       </c>
@@ -1227,8 +1345,8 @@
       <c r="C39" s="3">
         <v>22.62</v>
       </c>
-      <c r="D39" s="2">
-        <v>3.4474659999999998E-9</v>
+      <c r="D39">
+        <v>7.9206399999999999E-10</v>
       </c>
       <c r="F39" s="2">
         <v>3.4474659999999998E-9</v>
@@ -1236,8 +1354,11 @@
       <c r="G39" s="5">
         <v>28.45</v>
       </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H39">
+        <v>7.9206399999999999E-10</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A40" s="4">
         <v>38</v>
       </c>
@@ -1247,8 +1368,8 @@
       <c r="C40" s="3">
         <v>22.62</v>
       </c>
-      <c r="D40" s="2">
-        <v>2.5118860000000001E-9</v>
+      <c r="D40">
+        <v>8.1451499999999995E-10</v>
       </c>
       <c r="F40" s="2">
         <v>2.5118860000000001E-9</v>
@@ -1256,8 +1377,11 @@
       <c r="G40" s="5">
         <v>26.65</v>
       </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H40">
+        <v>8.1451499999999995E-10</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A41" s="4">
         <v>39</v>
       </c>
@@ -1267,8 +1391,8 @@
       <c r="C41" s="3">
         <v>22.62</v>
       </c>
-      <c r="D41" s="2">
-        <v>3.4873859999999999E-9</v>
+      <c r="D41">
+        <v>8.3810200000000005E-10</v>
       </c>
       <c r="F41" s="2">
         <v>3.4873859999999999E-9</v>
@@ -1276,8 +1400,11 @@
       <c r="G41" s="5">
         <v>29</v>
       </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H41">
+        <v>8.3810200000000005E-10</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A42" s="4">
         <v>40</v>
       </c>
@@ -1287,8 +1414,8 @@
       <c r="C42" s="3">
         <v>22.62</v>
       </c>
-      <c r="D42" s="2">
-        <v>4.926063E-9</v>
+      <c r="D42">
+        <v>8.5578400000000005E-10</v>
       </c>
       <c r="F42" s="2">
         <v>4.926063E-9</v>
@@ -1296,8 +1423,11 @@
       <c r="G42" s="5">
         <v>29.4</v>
       </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H42">
+        <v>8.5578400000000005E-10</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A43" s="4">
         <v>41</v>
       </c>
@@ -1307,8 +1437,8 @@
       <c r="C43" s="3">
         <v>22.62</v>
       </c>
-      <c r="D43" s="2">
-        <v>3.9129109999999998E-9</v>
+      <c r="D43">
+        <v>8.8217099999999997E-10</v>
       </c>
       <c r="F43" s="2">
         <v>3.9129109999999998E-9</v>
@@ -1316,8 +1446,11 @@
       <c r="G43" s="5">
         <v>32.65</v>
       </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H43">
+        <v>8.8217099999999997E-10</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A44" s="4">
         <v>42</v>
       </c>
@@ -1327,8 +1460,8 @@
       <c r="C44" s="3">
         <v>22.62</v>
       </c>
-      <c r="D44" s="2">
-        <v>4.8696749999999997E-9</v>
+      <c r="D44">
+        <v>9.1096200000000004E-10</v>
       </c>
       <c r="F44" s="2">
         <v>4.8696749999999997E-9</v>
@@ -1336,8 +1469,11 @@
       <c r="G44" s="5">
         <v>32.5</v>
       </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H44">
+        <v>9.1096200000000004E-10</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A45" s="4">
         <v>43</v>
       </c>
@@ -1347,8 +1483,8 @@
       <c r="C45" s="3">
         <v>22.62</v>
       </c>
-      <c r="D45" s="2">
-        <v>4.265795E-9</v>
+      <c r="D45">
+        <v>9.4139299999999992E-10</v>
       </c>
       <c r="F45" s="2">
         <v>4.265795E-9</v>
@@ -1356,8 +1492,11 @@
       <c r="G45" s="5">
         <v>34.700000000000003</v>
       </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H45">
+        <v>9.4139299999999992E-10</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A46" s="4">
         <v>44</v>
       </c>
@@ -1367,8 +1506,8 @@
       <c r="C46" s="3">
         <v>22.62</v>
       </c>
-      <c r="D46" s="2">
-        <v>4.926063E-9</v>
+      <c r="D46">
+        <v>9.7541799999999991E-10</v>
       </c>
       <c r="F46" s="2">
         <v>4.926063E-9</v>
@@ -1376,8 +1515,11 @@
       <c r="G46" s="5">
         <v>13.3</v>
       </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H46">
+        <v>9.7541799999999991E-10</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A47" s="4">
         <v>45</v>
       </c>
@@ -1387,8 +1529,8 @@
       <c r="C47" s="3">
         <v>22.62</v>
       </c>
-      <c r="D47" s="2">
-        <v>4.1447659999999999E-9</v>
+      <c r="D47">
+        <v>1.000893E-9</v>
       </c>
       <c r="F47" s="2">
         <v>4.1447659999999999E-9</v>
@@ -1396,8 +1538,11 @@
       <c r="G47" s="5">
         <v>12.85</v>
       </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H47">
+        <v>1.000893E-9</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A48" s="4">
         <v>46</v>
       </c>
@@ -1407,8 +1552,8 @@
       <c r="C48" s="3">
         <v>22.62</v>
       </c>
-      <c r="D48" s="2">
-        <v>5.0118720000000002E-9</v>
+      <c r="D48">
+        <v>1.036209E-9</v>
       </c>
       <c r="F48" s="2">
         <v>5.0118720000000002E-9</v>
@@ -1416,8 +1561,11 @@
       <c r="G48" s="5">
         <v>14.7</v>
       </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H48">
+        <v>1.036209E-9</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A49" s="4">
         <v>47</v>
       </c>
@@ -1427,8 +1575,8 @@
       <c r="C49" s="3">
         <v>22.62</v>
       </c>
-      <c r="D49" s="2">
-        <v>3.9355010000000002E-9</v>
+      <c r="D49">
+        <v>1.074271E-9</v>
       </c>
       <c r="F49" s="2">
         <v>3.9355010000000002E-9</v>
@@ -1436,8 +1584,11 @@
       <c r="G49" s="5">
         <v>14.15</v>
       </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H49">
+        <v>1.074271E-9</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A50" s="4">
         <v>48</v>
       </c>
@@ -1447,8 +1598,8 @@
       <c r="C50" s="3">
         <v>22.62</v>
       </c>
-      <c r="D50" s="2">
-        <v>5.559043E-9</v>
+      <c r="D50">
+        <v>1.116151E-9</v>
       </c>
       <c r="F50" s="2">
         <v>5.559043E-9</v>
@@ -1456,8 +1607,11 @@
       <c r="G50" s="5">
         <v>15.75</v>
       </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H50">
+        <v>1.116151E-9</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A51" s="4">
         <v>49</v>
       </c>
@@ -1467,8 +1621,8 @@
       <c r="C51" s="3">
         <v>22.62</v>
       </c>
-      <c r="D51" s="2">
-        <v>7.1614339999999998E-9</v>
+      <c r="D51">
+        <v>1.1623859999999999E-9</v>
       </c>
       <c r="F51" s="2">
         <v>7.1614339999999998E-9</v>
@@ -1476,8 +1630,11 @@
       <c r="G51" s="5">
         <v>15.95</v>
       </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H51">
+        <v>1.1623859999999999E-9</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A52" s="4">
         <v>50</v>
       </c>
@@ -1487,8 +1644,8 @@
       <c r="C52" s="3">
         <v>22.62</v>
       </c>
-      <c r="D52" s="2">
-        <v>5.956621E-9</v>
+      <c r="D52">
+        <v>1.215487E-9</v>
       </c>
       <c r="F52" s="2">
         <v>5.956621E-9</v>
@@ -1496,8 +1653,11 @@
       <c r="G52" s="5">
         <v>16.850000000000001</v>
       </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H52">
+        <v>1.215487E-9</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A53" s="4">
         <v>51</v>
       </c>
@@ -1507,8 +1667,8 @@
       <c r="C53" s="3">
         <v>22.62</v>
       </c>
-      <c r="D53" s="2">
-        <v>6.9183099999999999E-9</v>
+      <c r="D53">
+        <v>1.258103E-9</v>
       </c>
       <c r="F53" s="2">
         <v>6.9183099999999999E-9</v>
@@ -1516,8 +1676,11 @@
       <c r="G53" s="5">
         <v>18.5</v>
       </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H53">
+        <v>1.258103E-9</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A54" s="4">
         <v>52</v>
       </c>
@@ -1527,8 +1690,8 @@
       <c r="C54" s="3">
         <v>22.62</v>
       </c>
-      <c r="D54" s="2">
-        <v>6.5690110000000002E-9</v>
+      <c r="D54">
+        <v>1.3206459999999999E-9</v>
       </c>
       <c r="F54" s="2">
         <v>6.5690110000000002E-9</v>
@@ -1536,8 +1699,11 @@
       <c r="G54" s="5">
         <v>19.350000000000001</v>
       </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H54">
+        <v>1.3206459999999999E-9</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A55" s="4">
         <v>53</v>
       </c>
@@ -1547,8 +1713,8 @@
       <c r="C55" s="3">
         <v>22.62</v>
       </c>
-      <c r="D55" s="2">
-        <v>7.7179149999999994E-9</v>
+      <c r="D55">
+        <v>1.3886010000000001E-9</v>
       </c>
       <c r="F55" s="2">
         <v>7.7179149999999994E-9</v>
@@ -1556,8 +1722,11 @@
       <c r="G55" s="5">
         <v>21.95</v>
       </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H55">
+        <v>1.3886010000000001E-9</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A56" s="4">
         <v>54</v>
       </c>
@@ -1567,8 +1736,8 @@
       <c r="C56" s="3">
         <v>22.62</v>
       </c>
-      <c r="D56" s="2">
-        <v>6.237348E-9</v>
+      <c r="D56">
+        <v>1.461576E-9</v>
       </c>
       <c r="F56" s="2">
         <v>6.237348E-9</v>
@@ -1576,8 +1745,11 @@
       <c r="G56" s="5">
         <v>22.35</v>
       </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H56">
+        <v>1.461576E-9</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A57" s="4">
         <v>55</v>
       </c>
@@ -1587,8 +1759,8 @@
       <c r="C57" s="3">
         <v>22.62</v>
       </c>
-      <c r="D57" s="2">
-        <v>7.9891389999999992E-9</v>
+      <c r="D57">
+        <v>1.517943E-9</v>
       </c>
       <c r="F57" s="2">
         <v>7.9891389999999992E-9</v>
@@ -1596,8 +1768,11 @@
       <c r="G57" s="5">
         <v>23.9</v>
       </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H57">
+        <v>1.517943E-9</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A58" s="4">
         <v>56</v>
       </c>
@@ -1607,8 +1782,8 @@
       <c r="C58" s="3">
         <v>22.62</v>
       </c>
-      <c r="D58" s="2">
-        <v>9.3325429999999998E-9</v>
+      <c r="D58">
+        <v>2.2607400000000002E-9</v>
       </c>
       <c r="F58" s="2">
         <v>9.3325429999999998E-9</v>
@@ -1616,8 +1791,11 @@
       <c r="G58" s="5">
         <v>25.35</v>
       </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H58">
+        <v>2.2607400000000002E-9</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A59" s="4">
         <v>57</v>
       </c>
@@ -1627,8 +1805,8 @@
       <c r="C59" s="3">
         <v>22.62</v>
       </c>
-      <c r="D59" s="2">
-        <v>8.9125090000000008E-9</v>
+      <c r="D59">
+        <v>2.2659010000000001E-9</v>
       </c>
       <c r="F59" s="2">
         <v>8.9125090000000008E-9</v>
@@ -1636,8 +1814,11 @@
       <c r="G59" s="5">
         <v>26.75</v>
       </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H59">
+        <v>2.2659010000000001E-9</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A60" s="4">
         <v>58</v>
       </c>
@@ -1647,8 +1828,8 @@
       <c r="C60" s="3">
         <v>22.62</v>
       </c>
-      <c r="D60" s="2">
-        <v>9.6605090000000003E-9</v>
+      <c r="D60">
+        <v>2.2727959999999998E-9</v>
       </c>
       <c r="F60" s="2">
         <v>9.6605090000000003E-9</v>
@@ -1656,8 +1837,11 @@
       <c r="G60" s="5">
         <v>28.75</v>
       </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H60">
+        <v>2.2727959999999998E-9</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A61" s="4">
         <v>59</v>
       </c>
@@ -1667,8 +1851,8 @@
       <c r="C61" s="3">
         <v>22.62</v>
       </c>
-      <c r="D61" s="2">
-        <v>9.6050579999999993E-9</v>
+      <c r="D61">
+        <v>2.2913440000000001E-9</v>
       </c>
       <c r="F61" s="2">
         <v>9.6050579999999993E-9</v>
@@ -1676,8 +1860,11 @@
       <c r="G61" s="5">
         <v>30</v>
       </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H61">
+        <v>2.2913440000000001E-9</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A62" s="4">
         <v>60</v>
       </c>
@@ -1687,8 +1874,8 @@
       <c r="C62" s="3">
         <v>22.62</v>
       </c>
-      <c r="D62" s="2">
-        <v>1.1816802999999999E-8</v>
+      <c r="D62">
+        <v>2.3218579999999999E-9</v>
       </c>
       <c r="F62" s="2">
         <v>1.1816802999999999E-8</v>
@@ -1696,8 +1883,11 @@
       <c r="G62" s="5">
         <v>31.5</v>
       </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H62">
+        <v>2.3218579999999999E-9</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A63" s="4">
         <v>61</v>
       </c>
@@ -1707,8 +1897,8 @@
       <c r="C63" s="3">
         <v>22.62</v>
       </c>
-      <c r="D63" s="2">
-        <v>1.0839269E-8</v>
+      <c r="D63">
+        <v>2.3697989999999999E-9</v>
       </c>
       <c r="F63" s="2">
         <v>1.0839269E-8</v>
@@ -1716,8 +1906,11 @@
       <c r="G63" s="5">
         <v>33.700000000000003</v>
       </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H63">
+        <v>2.3697989999999999E-9</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A64" s="4">
         <v>62</v>
       </c>
@@ -1727,8 +1920,8 @@
       <c r="C64" s="3">
         <v>22.62</v>
       </c>
-      <c r="D64" s="2">
-        <v>1.1748976E-8</v>
+      <c r="D64">
+        <v>2.414542E-9</v>
       </c>
       <c r="F64" s="2">
         <v>1.1748976E-8</v>
@@ -1736,8 +1929,11 @@
       <c r="G64" s="5">
         <v>35.299999999999997</v>
       </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H64">
+        <v>2.414542E-9</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A65" s="4">
         <v>63</v>
       </c>
@@ -1747,8 +1943,8 @@
       <c r="C65" s="3">
         <v>22.62</v>
       </c>
-      <c r="D65" s="2">
-        <v>1.1350108E-8</v>
+      <c r="D65">
+        <v>2.48445E-9</v>
       </c>
       <c r="F65" s="2">
         <v>1.1350108E-8</v>
@@ -1756,8 +1952,11 @@
       <c r="G65" s="5">
         <v>37.65</v>
       </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H65">
+        <v>2.48445E-9</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A66" s="4">
         <v>64</v>
       </c>
@@ -1767,8 +1966,8 @@
       <c r="C66" s="3">
         <v>22.62</v>
       </c>
-      <c r="D66" s="2">
-        <v>1.2661933E-8</v>
+      <c r="D66">
+        <v>2.5702109999999999E-9</v>
       </c>
       <c r="F66" s="2">
         <v>1.2661933E-8</v>
@@ -1776,8 +1975,11 @@
       <c r="G66" s="5">
         <v>39.35</v>
       </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H66">
+        <v>2.5702109999999999E-9</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A67" s="4">
         <v>65</v>
       </c>
@@ -1787,8 +1989,8 @@
       <c r="C67" s="3">
         <v>22.62</v>
       </c>
-      <c r="D67" s="2">
-        <v>1.2735031E-8</v>
+      <c r="D67">
+        <v>2.6738780000000001E-9</v>
       </c>
       <c r="F67" s="2">
         <v>1.2735031E-8</v>
@@ -1796,8 +1998,11 @@
       <c r="G67" s="5">
         <v>41.15</v>
       </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H67">
+        <v>2.6738780000000001E-9</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A68" s="4">
         <v>66</v>
       </c>
@@ -1807,8 +2012,8 @@
       <c r="C68" s="3">
         <v>22.62</v>
       </c>
-      <c r="D68" s="2">
-        <v>1.3803843E-8</v>
+      <c r="D68">
+        <v>2.797783E-9</v>
       </c>
       <c r="F68" s="2">
         <v>1.3803843E-8</v>
@@ -1816,8 +2021,11 @@
       <c r="G68" s="5">
         <v>43.8</v>
       </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H68">
+        <v>2.797783E-9</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A69" s="4">
         <v>67</v>
       </c>
@@ -1827,8 +2035,8 @@
       <c r="C69" s="3">
         <v>22.62</v>
       </c>
-      <c r="D69" s="2">
-        <v>1.3489629E-8</v>
+      <c r="D69">
+        <v>2.9304019999999999E-9</v>
       </c>
       <c r="F69" s="2">
         <v>1.3489629E-8</v>
@@ -1836,8 +2044,11 @@
       <c r="G69" s="5">
         <v>45.85</v>
       </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H69">
+        <v>2.9304019999999999E-9</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A70" s="4">
         <v>68</v>
       </c>
@@ -1847,8 +2058,8 @@
       <c r="C70" s="3">
         <v>22.62</v>
       </c>
-      <c r="D70" s="2">
-        <v>1.5310875E-8</v>
+      <c r="D70">
+        <v>3.0447860000000002E-9</v>
       </c>
       <c r="F70" s="2">
         <v>1.5310875E-8</v>
@@ -1856,8 +2067,11 @@
       <c r="G70" s="5">
         <v>48.8</v>
       </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H70">
+        <v>3.0447860000000002E-9</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A71" s="4">
         <v>69</v>
       </c>
@@ -1867,8 +2081,8 @@
       <c r="C71" s="3">
         <v>22.62</v>
       </c>
-      <c r="D71" s="2">
-        <v>1.6218100999999999E-8</v>
+      <c r="D71">
+        <v>3.2065770000000002E-9</v>
       </c>
       <c r="F71" s="2">
         <v>1.6218100999999999E-8</v>
@@ -1876,8 +2090,11 @@
       <c r="G71" s="5">
         <v>50.75</v>
       </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H71">
+        <v>3.2065770000000002E-9</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A72" s="4">
         <v>70</v>
       </c>
@@ -1887,8 +2104,8 @@
       <c r="C72" s="3">
         <v>22.62</v>
       </c>
-      <c r="D72" s="2">
-        <v>1.6595869E-8</v>
+      <c r="D72">
+        <v>3.373539E-9</v>
       </c>
       <c r="F72" s="2">
         <v>1.6595869E-8</v>
@@ -1896,8 +2113,11 @@
       <c r="G72" s="5">
         <v>53.05</v>
       </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H72">
+        <v>3.373539E-9</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A73" s="4">
         <v>71</v>
       </c>
@@ -1907,8 +2127,8 @@
       <c r="C73" s="3">
         <v>22.62</v>
       </c>
-      <c r="D73" s="2">
-        <v>2.0653802000000001E-8</v>
+      <c r="D73">
+        <v>3.5523349999999998E-9</v>
       </c>
       <c r="F73" s="2">
         <v>2.0653802000000001E-8</v>
@@ -1916,8 +2136,11 @@
       <c r="G73" s="5">
         <v>56.3</v>
       </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H73">
+        <v>3.5523349999999998E-9</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A74" s="4">
         <v>72</v>
       </c>
@@ -1927,8 +2150,8 @@
       <c r="C74" s="3">
         <v>22.62</v>
       </c>
-      <c r="D74" s="2">
-        <v>1.8513988999999999E-8</v>
+      <c r="D74">
+        <v>3.7367379999999998E-9</v>
       </c>
       <c r="F74" s="2">
         <v>1.8513988999999999E-8</v>
@@ -1936,8 +2159,11 @@
       <c r="G74" s="5">
         <v>58.8</v>
       </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H74">
+        <v>3.7367379999999998E-9</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A75" s="4">
         <v>73</v>
       </c>
@@ -1947,8 +2173,8 @@
       <c r="C75" s="3">
         <v>22.62</v>
       </c>
-      <c r="D75" s="2">
-        <v>2.0067811000000001E-8</v>
+      <c r="D75">
+        <v>3.9273799999999997E-9</v>
       </c>
       <c r="F75" s="2">
         <v>2.0067811000000001E-8</v>
@@ -1956,8 +2182,11 @@
       <c r="G75" s="5">
         <v>62.55</v>
       </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H75">
+        <v>3.9273799999999997E-9</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A76" s="4">
         <v>74</v>
       </c>
@@ -1967,8 +2196,8 @@
       <c r="C76" s="3">
         <v>22.62</v>
       </c>
-      <c r="D76" s="2">
-        <v>2.0183663999999999E-8</v>
+      <c r="D76">
+        <v>4.0770810000000001E-9</v>
       </c>
       <c r="F76" s="2">
         <v>2.0183663999999999E-8</v>
@@ -1976,8 +2205,11 @@
       <c r="G76" s="5">
         <v>65.25</v>
       </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H76">
+        <v>4.0770810000000001E-9</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A77" s="4">
         <v>75</v>
       </c>
@@ -1987,8 +2219,8 @@
       <c r="C77" s="3">
         <v>22.62</v>
       </c>
-      <c r="D77" s="2">
-        <v>2.2908677E-8</v>
+      <c r="D77">
+        <v>4.2871600000000003E-9</v>
       </c>
       <c r="F77" s="2">
         <v>2.2908677E-8</v>
@@ -1996,8 +2228,11 @@
       <c r="G77" s="5">
         <v>67.849999999999994</v>
       </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H77">
+        <v>4.2871600000000003E-9</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A78" s="4">
         <v>76</v>
       </c>
@@ -2007,8 +2242,8 @@
       <c r="C78" s="3">
         <v>22.62</v>
       </c>
-      <c r="D78" s="2">
-        <v>2.2258710000000001E-8</v>
+      <c r="D78">
+        <v>4.5056120000000003E-9</v>
       </c>
       <c r="F78" s="2">
         <v>2.2258710000000001E-8</v>
@@ -2016,8 +2251,11 @@
       <c r="G78" s="5">
         <v>72.099999999999994</v>
       </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H78">
+        <v>4.5056120000000003E-9</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A79" s="4">
         <v>77</v>
       </c>
@@ -2027,8 +2265,8 @@
       <c r="C79" s="3">
         <v>22.62</v>
       </c>
-      <c r="D79" s="2">
-        <v>2.4547089E-8</v>
+      <c r="D79">
+        <v>4.7288209999999997E-9</v>
       </c>
       <c r="F79" s="2">
         <v>2.4547089E-8</v>
@@ -2036,8 +2274,11 @@
       <c r="G79" s="5">
         <v>74.95</v>
       </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H79">
+        <v>4.7288209999999997E-9</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A80" s="4">
         <v>78</v>
       </c>
@@ -2047,8 +2288,8 @@
       <c r="C80" s="3">
         <v>22.62</v>
       </c>
-      <c r="D80" s="2">
-        <v>2.4547089E-8</v>
+      <c r="D80">
+        <v>4.9722699999999998E-9</v>
       </c>
       <c r="F80" s="2">
         <v>2.4547089E-8</v>
@@ -2056,8 +2297,11 @@
       <c r="G80" s="5">
         <v>23.5</v>
       </c>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H80">
+        <v>4.9722699999999998E-9</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A81" s="4">
         <v>79</v>
       </c>
@@ -2067,8 +2311,8 @@
       <c r="C81" s="3">
         <v>22.62</v>
       </c>
-      <c r="D81" s="2">
-        <v>2.5556418999999999E-8</v>
+      <c r="D81">
+        <v>5.1592050000000001E-9</v>
       </c>
       <c r="F81" s="2">
         <v>2.5556418999999999E-8</v>
@@ -2076,8 +2320,11 @@
       <c r="G81" s="5">
         <v>24.65</v>
       </c>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H81">
+        <v>5.1592050000000001E-9</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A82" s="4">
         <v>80</v>
       </c>
@@ -2087,8 +2334,8 @@
       <c r="C82" s="3">
         <v>22.62</v>
       </c>
-      <c r="D82" s="2">
-        <v>2.6302680000000001E-8</v>
+      <c r="D82">
+        <v>5.421259E-9</v>
       </c>
       <c r="F82" s="2">
         <v>2.6302680000000001E-8</v>
@@ -2096,8 +2343,11 @@
       <c r="G82" s="5">
         <v>26.1</v>
       </c>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H82">
+        <v>5.421259E-9</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A83" s="4">
         <v>81</v>
       </c>
@@ -2107,8 +2357,8 @@
       <c r="C83" s="3">
         <v>22.62</v>
       </c>
-      <c r="D83" s="2">
-        <v>2.7861211999999999E-8</v>
+      <c r="D83">
+        <v>5.695527E-9</v>
       </c>
       <c r="F83" s="2">
         <v>2.7861211999999999E-8</v>
@@ -2116,8 +2366,11 @@
       <c r="G83" s="5">
         <v>26.4</v>
       </c>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H83">
+        <v>5.695527E-9</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A84" s="4">
         <v>82</v>
       </c>
@@ -2127,8 +2380,8 @@
       <c r="C84" s="3">
         <v>22.62</v>
       </c>
-      <c r="D84" s="2">
-        <v>2.917427E-8</v>
+      <c r="D84">
+        <v>5.9791020000000004E-9</v>
       </c>
       <c r="F84" s="2">
         <v>2.917427E-8</v>
@@ -2136,8 +2389,11 @@
       <c r="G84" s="5">
         <v>27.6</v>
       </c>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H84">
+        <v>5.9791020000000004E-9</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A85" s="4">
         <v>83</v>
       </c>
@@ -2147,8 +2403,8 @@
       <c r="C85" s="3">
         <v>22.62</v>
       </c>
-      <c r="D85" s="2">
-        <v>3.0725574000000003E-8</v>
+      <c r="D85">
+        <v>6.2786990000000003E-9</v>
       </c>
       <c r="F85" s="2">
         <v>3.0725574000000003E-8</v>
@@ -2156,8 +2412,11 @@
       <c r="G85" s="5">
         <v>29.65</v>
       </c>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H85">
+        <v>6.2786990000000003E-9</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A86" s="4">
         <v>84</v>
       </c>
@@ -2167,8 +2426,8 @@
       <c r="C86" s="3">
         <v>22.62</v>
       </c>
-      <c r="D86" s="2">
-        <v>3.2359366000000003E-8</v>
+      <c r="D86">
+        <v>6.5924109999999999E-9</v>
       </c>
       <c r="F86" s="2">
         <v>3.2359366000000003E-8</v>
@@ -2176,8 +2435,11 @@
       <c r="G86" s="5">
         <v>31.1</v>
       </c>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H86">
+        <v>6.5924109999999999E-9</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A87" s="4">
         <v>85</v>
       </c>
@@ -2187,8 +2449,8 @@
       <c r="C87" s="3">
         <v>22.62</v>
       </c>
-      <c r="D87" s="2">
-        <v>3.4673684999999999E-8</v>
+      <c r="D87">
+        <v>6.8380150000000004E-9</v>
       </c>
       <c r="F87" s="2">
         <v>3.4673684999999999E-8</v>
@@ -2196,8 +2458,11 @@
       <c r="G87" s="5">
         <v>32.75</v>
       </c>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H87">
+        <v>6.8380150000000004E-9</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A88" s="4">
         <v>86</v>
       </c>
@@ -2207,8 +2472,8 @@
       <c r="C88" s="3">
         <v>22.62</v>
       </c>
-      <c r="D88" s="2">
-        <v>3.9129112999999999E-8</v>
+      <c r="D88">
+        <v>7.1797320000000002E-9</v>
       </c>
       <c r="F88" s="2">
         <v>3.9129112999999999E-8</v>
@@ -2216,8 +2481,11 @@
       <c r="G88" s="5">
         <v>34.450000000000003</v>
       </c>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H88">
+        <v>7.1797320000000002E-9</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A89" s="4">
         <v>87</v>
       </c>
@@ -2227,8 +2495,8 @@
       <c r="C89" s="3">
         <v>22.62</v>
       </c>
-      <c r="D89" s="2">
-        <v>3.6728229999999997E-8</v>
+      <c r="D89">
+        <v>7.5347919999999992E-9</v>
       </c>
       <c r="F89" s="2">
         <v>3.6728229999999997E-8</v>
@@ -2236,8 +2504,11 @@
       <c r="G89" s="5">
         <v>35.299999999999997</v>
       </c>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H89">
+        <v>7.5347919999999992E-9</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A90" s="4">
         <v>88</v>
       </c>
@@ -2247,8 +2518,8 @@
       <c r="C90" s="3">
         <v>22.62</v>
       </c>
-      <c r="D90" s="2">
-        <v>3.9810716999999997E-8</v>
+      <c r="D90">
+        <v>7.9131170000000004E-9</v>
       </c>
       <c r="F90" s="2">
         <v>3.9810716999999997E-8</v>
@@ -2256,8 +2527,11 @@
       <c r="G90" s="5">
         <v>38.549999999999997</v>
       </c>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H90">
+        <v>7.9131170000000004E-9</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A91" s="4">
         <v>89</v>
       </c>
@@ -2267,8 +2541,8 @@
       <c r="C91" s="3">
         <v>22.62</v>
       </c>
-      <c r="D91" s="2">
-        <v>4.1447657999999998E-8</v>
+      <c r="D91">
+        <v>8.3109170000000008E-9</v>
       </c>
       <c r="F91" s="2">
         <v>4.1447657999999998E-8</v>
@@ -2276,8 +2550,11 @@
       <c r="G91" s="5">
         <v>39.5</v>
       </c>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H91">
+        <v>8.3109170000000008E-9</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A92" s="4">
         <v>90</v>
       </c>
@@ -2287,8 +2564,8 @@
       <c r="C92" s="3">
         <v>22.62</v>
       </c>
-      <c r="D92" s="2">
-        <v>4.2904218999999999E-8</v>
+      <c r="D92">
+        <v>8.7245709999999993E-9</v>
       </c>
       <c r="F92" s="2">
         <v>4.2904218999999999E-8</v>
@@ -2296,8 +2573,11 @@
       <c r="G92" s="5">
         <v>42.45</v>
       </c>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H92">
+        <v>8.7245709999999993E-9</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A93" s="4">
         <v>91</v>
       </c>
@@ -2307,8 +2587,8 @@
       <c r="C93" s="3">
         <v>22.62</v>
       </c>
-      <c r="D93" s="2">
-        <v>4.4668358999999999E-8</v>
+      <c r="D93">
+        <v>9.0454910000000003E-9</v>
       </c>
       <c r="F93" s="2">
         <v>4.4668358999999999E-8</v>
@@ -2316,8 +2596,11 @@
       <c r="G93" s="5">
         <v>44.35</v>
       </c>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H93">
+        <v>9.0454910000000003E-9</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A94" s="4">
         <v>92</v>
       </c>
@@ -2327,8 +2610,8 @@
       <c r="C94" s="3">
         <v>22.62</v>
       </c>
-      <c r="D94" s="2">
-        <v>4.6505037999999997E-8</v>
+      <c r="D94">
+        <v>9.4960560000000008E-9</v>
       </c>
       <c r="F94" s="2">
         <v>4.6505037999999997E-8</v>
@@ -2336,8 +2619,11 @@
       <c r="G94" s="5">
         <v>45.75</v>
       </c>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H94">
+        <v>9.4960560000000008E-9</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A95" s="4">
         <v>93</v>
       </c>
@@ -2347,8 +2633,8 @@
       <c r="C95" s="3">
         <v>22.62</v>
       </c>
-      <c r="D95" s="2">
-        <v>5.1582216999999998E-8</v>
+      <c r="D95">
+        <v>9.9739389999999993E-9</v>
       </c>
       <c r="F95" s="2">
         <v>5.1582216999999998E-8</v>
@@ -2356,8 +2642,11 @@
       <c r="G95" s="5">
         <v>48.9</v>
       </c>
-    </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H95">
+        <v>9.9739389999999993E-9</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A96" s="4">
         <v>94</v>
       </c>
@@ -2367,8 +2656,8 @@
       <c r="C96" s="3">
         <v>22.62</v>
       </c>
-      <c r="D96" s="2">
-        <v>5.0991760000000001E-8</v>
+      <c r="D96">
+        <v>1.047605E-8</v>
       </c>
       <c r="F96" s="2">
         <v>5.0991760000000001E-8</v>
@@ -2376,8 +2665,11 @@
       <c r="G96" s="5">
         <v>50.2</v>
       </c>
-    </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H96">
+        <v>1.047605E-8</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A97" s="4">
         <v>95</v>
       </c>
@@ -2387,8 +2679,8 @@
       <c r="C97" s="3">
         <v>22.62</v>
       </c>
-      <c r="D97" s="2">
-        <v>5.7213694999999997E-8</v>
+      <c r="D97">
+        <v>1.099582E-8</v>
       </c>
       <c r="F97" s="2">
         <v>5.7213694999999997E-8</v>
@@ -2396,8 +2688,11 @@
       <c r="G97" s="5">
         <v>53.75</v>
       </c>
-    </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H97">
+        <v>1.099582E-8</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A98" s="4">
         <v>96</v>
       </c>
@@ -2407,8 +2702,8 @@
       <c r="C98" s="3">
         <v>22.62</v>
       </c>
-      <c r="D98" s="2">
-        <v>5.6234132999999999E-8</v>
+      <c r="D98">
+        <v>1.140476E-8</v>
       </c>
       <c r="F98" s="2">
         <v>5.6234132999999999E-8</v>
@@ -2416,8 +2711,11 @@
       <c r="G98" s="5">
         <v>55.75</v>
       </c>
-    </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H98">
+        <v>1.140476E-8</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A99" s="4">
         <v>97</v>
       </c>
@@ -2427,8 +2725,8 @@
       <c r="C99" s="3">
         <v>22.62</v>
       </c>
-      <c r="D99" s="2">
-        <v>6.6069345000000002E-8</v>
+      <c r="D99">
+        <v>1.197126E-8</v>
       </c>
       <c r="F99" s="2">
         <v>6.6069345000000002E-8</v>
@@ -2436,8 +2734,11 @@
       <c r="G99" s="5">
         <v>58.3</v>
       </c>
-    </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H99">
+        <v>1.197126E-8</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A100" s="4">
         <v>98</v>
       </c>
@@ -2447,8 +2748,8 @@
       <c r="C100" s="3">
         <v>22.62</v>
       </c>
-      <c r="D100" s="2">
-        <v>6.1659499999999997E-8</v>
+      <c r="D100">
+        <v>1.2572770000000001E-8</v>
       </c>
       <c r="F100" s="2">
         <v>6.1659499999999997E-8</v>
@@ -2456,8 +2757,11 @@
       <c r="G100" s="5">
         <v>62.1</v>
       </c>
-    </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H100">
+        <v>1.2572770000000001E-8</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A101" s="4">
         <v>99</v>
       </c>
@@ -2467,8 +2771,8 @@
       <c r="C101" s="3">
         <v>22.62</v>
       </c>
-      <c r="D101" s="2">
-        <v>6.4565422999999995E-8</v>
+      <c r="D101">
+        <v>1.320104E-8</v>
       </c>
       <c r="F101" s="2">
         <v>6.4565422999999995E-8</v>
@@ -2476,8 +2780,11 @@
       <c r="G101" s="5">
         <v>64.400000000000006</v>
       </c>
-    </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H101">
+        <v>1.320104E-8</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A102" s="4">
         <v>100</v>
       </c>
@@ -2487,8 +2794,8 @@
       <c r="C102" s="3">
         <v>22.62</v>
       </c>
-      <c r="D102" s="2">
-        <v>7.5857757999999999E-8</v>
+      <c r="D102">
+        <v>1.3848450000000001E-8</v>
       </c>
       <c r="F102" s="2">
         <v>7.5857757999999999E-8</v>
@@ -2496,8 +2803,11 @@
       <c r="G102" s="5">
         <v>68.2</v>
       </c>
-    </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H102">
+        <v>1.3848450000000001E-8</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A103" s="4">
         <v>101</v>
       </c>
@@ -2507,8 +2817,8 @@
       <c r="C103" s="3">
         <v>22.62</v>
       </c>
-      <c r="D103" s="2">
-        <v>7.0794577999999997E-8</v>
+      <c r="D103">
+        <v>1.45352E-8</v>
       </c>
       <c r="F103" s="2">
         <v>7.0794577999999997E-8</v>
@@ -2516,8 +2826,11 @@
       <c r="G103" s="5">
         <v>70.349999999999994</v>
       </c>
-    </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H103">
+        <v>1.45352E-8</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A104" s="4">
         <v>102</v>
       </c>
@@ -2527,8 +2840,8 @@
       <c r="C104" s="3">
         <v>22.62</v>
       </c>
-      <c r="D104" s="2">
-        <v>8.0352612E-8</v>
+      <c r="D104">
+        <v>1.5074489E-8</v>
       </c>
       <c r="F104" s="2">
         <v>8.0352612E-8</v>
@@ -2536,8 +2849,11 @@
       <c r="G104" s="5">
         <v>74.45</v>
       </c>
-    </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H104">
+        <v>1.5074489E-8</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A105" s="4">
         <v>103</v>
       </c>
@@ -2547,8 +2863,8 @@
       <c r="C105" s="3">
         <v>22.62</v>
       </c>
-      <c r="D105" s="2">
-        <v>7.8523562999999999E-8</v>
+      <c r="D105">
+        <v>1.5631571E-8</v>
       </c>
       <c r="F105" s="2">
         <v>7.8523562999999999E-8</v>
@@ -2556,8 +2872,11 @@
       <c r="G105" s="5">
         <v>78.55</v>
       </c>
-    </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H105">
+        <v>1.5631571E-8</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A106" s="4">
         <v>104</v>
       </c>
@@ -2567,8 +2886,8 @@
       <c r="C106" s="3">
         <v>22.62</v>
       </c>
-      <c r="D106" s="2">
-        <v>8.1752303999999994E-8</v>
+      <c r="D106">
+        <v>2.1722440999999999E-8</v>
       </c>
       <c r="F106" s="2">
         <v>8.1752303999999994E-8</v>
@@ -2576,8 +2895,11 @@
       <c r="G106" s="5">
         <v>25.3</v>
       </c>
-    </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H106">
+        <v>2.1722440999999999E-8</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A107" s="4">
         <v>105</v>
       </c>
@@ -2587,8 +2909,8 @@
       <c r="C107" s="3">
         <v>22.62</v>
       </c>
-      <c r="D107" s="2">
-        <v>8.9639618999999995E-8</v>
+      <c r="D107">
+        <v>2.1769759000000002E-8</v>
       </c>
       <c r="F107" s="2">
         <v>8.9639618999999995E-8</v>
@@ -2596,8 +2918,11 @@
       <c r="G107" s="5">
         <v>27.35</v>
       </c>
-    </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H107">
+        <v>2.1769759000000002E-8</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A108" s="4">
         <v>106</v>
       </c>
@@ -2607,8 +2932,8 @@
       <c r="C108" s="3">
         <v>22.62</v>
       </c>
-      <c r="D108" s="2">
-        <v>8.9639618999999995E-8</v>
+      <c r="D108">
+        <v>2.187625E-8</v>
       </c>
       <c r="F108" s="2">
         <v>8.9639618999999995E-8</v>
@@ -2616,8 +2941,11 @@
       <c r="G108" s="5">
         <v>28.4</v>
       </c>
-    </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H108">
+        <v>2.187625E-8</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A109" s="4">
         <v>107</v>
       </c>
@@ -2627,8 +2955,8 @@
       <c r="C109" s="3">
         <v>22.62</v>
       </c>
-      <c r="D109" s="2">
-        <v>9.8287887E-8</v>
+      <c r="D109">
+        <v>2.2075690999999999E-8</v>
       </c>
       <c r="F109" s="2">
         <v>9.8287887E-8</v>
@@ -2636,8 +2964,11 @@
       <c r="G109" s="5">
         <v>30.05</v>
       </c>
-    </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H109">
+        <v>2.2075690999999999E-8</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A110" s="4">
         <v>108</v>
       </c>
@@ -2647,8 +2978,8 @@
       <c r="C110" s="3">
         <v>22.62</v>
       </c>
-      <c r="D110" s="2">
-        <v>9.7723722000000006E-8</v>
+      <c r="D110">
+        <v>2.2298110000000001E-8</v>
       </c>
       <c r="F110" s="2">
         <v>9.7723722000000006E-8</v>
@@ -2656,8 +2987,11 @@
       <c r="G110" s="5">
         <v>31.35</v>
       </c>
-    </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H110">
+        <v>2.2298110000000001E-8</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A111" s="4">
         <v>109</v>
       </c>
@@ -2667,8 +3001,8 @@
       <c r="C111" s="3">
         <v>22.62</v>
       </c>
-      <c r="D111" s="2">
-        <v>1.0715193099999999E-7</v>
+      <c r="D111">
+        <v>2.269954E-8</v>
       </c>
       <c r="F111" s="2">
         <v>1.0715193099999999E-7</v>
@@ -2676,8 +3010,11 @@
       <c r="G111" s="5">
         <v>32.4</v>
       </c>
-    </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H111">
+        <v>2.269954E-8</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A112" s="4">
         <v>110</v>
       </c>
@@ -2687,8 +3024,8 @@
       <c r="C112" s="3">
         <v>22.62</v>
       </c>
-      <c r="D112" s="2">
-        <v>1.10280823E-7</v>
+      <c r="D112">
+        <v>2.3245329E-8</v>
       </c>
       <c r="F112" s="2">
         <v>1.10280823E-7</v>
@@ -2696,8 +3033,11 @@
       <c r="G112" s="5">
         <v>34.200000000000003</v>
       </c>
-    </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H112">
+        <v>2.3245329E-8</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A113" s="4">
         <v>111</v>
       </c>
@@ -2707,8 +3047,8 @@
       <c r="C113" s="3">
         <v>22.62</v>
       </c>
-      <c r="D113" s="2">
-        <v>1.12849594E-7</v>
+      <c r="D113">
+        <v>2.3912560999999999E-8</v>
       </c>
       <c r="F113" s="2">
         <v>1.12849594E-7</v>
@@ -2716,8 +3056,11 @@
       <c r="G113" s="5">
         <v>36.549999999999997</v>
       </c>
-    </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H113">
+        <v>2.3912560999999999E-8</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A114" s="4">
         <v>112</v>
       </c>
@@ -2727,8 +3070,8 @@
       <c r="C114" s="3">
         <v>22.62</v>
       </c>
-      <c r="D114" s="2">
-        <v>1.3182567399999999E-7</v>
+      <c r="D114">
+        <v>2.4731101000000001E-8</v>
       </c>
       <c r="F114" s="2">
         <v>1.3182567399999999E-7</v>
@@ -2736,8 +3079,11 @@
       <c r="G114" s="5">
         <v>38.9</v>
       </c>
-    </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H114">
+        <v>2.4731101000000001E-8</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A115" s="4">
         <v>113</v>
       </c>
@@ -2747,8 +3093,8 @@
       <c r="C115" s="3">
         <v>22.62</v>
       </c>
-      <c r="D115" s="2">
-        <v>1.2445146100000001E-7</v>
+      <c r="D115">
+        <v>2.5441119000000001E-8</v>
       </c>
       <c r="F115" s="2">
         <v>1.2445146100000001E-7</v>
@@ -2756,8 +3102,11 @@
       <c r="G115" s="5">
         <v>40.65</v>
       </c>
-    </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H115">
+        <v>2.5441119000000001E-8</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A116" s="4">
         <v>114</v>
       </c>
@@ -2767,8 +3116,8 @@
       <c r="C116" s="3">
         <v>22.62</v>
       </c>
-      <c r="D116" s="2">
-        <v>1.3645831399999999E-7</v>
+      <c r="D116">
+        <v>2.651467E-8</v>
       </c>
       <c r="F116" s="2">
         <v>1.3645831399999999E-7</v>
@@ -2776,8 +3125,11 @@
       <c r="G116" s="5">
         <v>41.95</v>
       </c>
-    </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H116">
+        <v>2.651467E-8</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A117" s="4">
         <v>115</v>
       </c>
@@ -2787,8 +3139,8 @@
       <c r="C117" s="3">
         <v>22.62</v>
       </c>
-      <c r="D117" s="2">
-        <v>1.3963683600000001E-7</v>
+      <c r="D117">
+        <v>2.7726009999999999E-8</v>
       </c>
       <c r="F117" s="2">
         <v>1.3963683600000001E-7</v>
@@ -2796,8 +3148,11 @@
       <c r="G117" s="5">
         <v>44.15</v>
       </c>
-    </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H117">
+        <v>2.7726009999999999E-8</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A118" s="4">
         <v>116</v>
       </c>
@@ -2807,8 +3162,8 @@
       <c r="C118" s="3">
         <v>22.62</v>
       </c>
-      <c r="D118" s="2">
-        <v>1.4288939600000001E-7</v>
+      <c r="D118">
+        <v>2.90625E-8</v>
       </c>
       <c r="F118" s="2">
         <v>1.4288939600000001E-7</v>
@@ -2816,8 +3171,11 @@
       <c r="G118" s="5">
         <v>46.65</v>
       </c>
-    </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H118">
+        <v>2.90625E-8</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A119" s="4">
         <v>117</v>
       </c>
@@ -2827,8 +3185,8 @@
       <c r="C119" s="3">
         <v>22.62</v>
       </c>
-      <c r="D119" s="2">
-        <v>1.6125010299999999E-7</v>
+      <c r="D119">
+        <v>3.0491079999999997E-8</v>
       </c>
       <c r="F119" s="2">
         <v>1.6125010299999999E-7</v>
@@ -2836,8 +3194,11 @@
       <c r="G119" s="5">
         <v>48.55</v>
       </c>
-    </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H119">
+        <v>3.0491079999999997E-8</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A120" s="4">
         <v>118</v>
       </c>
@@ -2847,8 +3208,8 @@
       <c r="C120" s="3">
         <v>22.62</v>
       </c>
-      <c r="D120" s="2">
-        <v>1.55775803E-7</v>
+      <c r="D120">
+        <v>3.2004940999999999E-8</v>
       </c>
       <c r="F120" s="2">
         <v>1.55775803E-7</v>
@@ -2856,8 +3217,11 @@
       <c r="G120" s="5">
         <v>50.95</v>
       </c>
-    </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H120">
+        <v>3.2004940999999999E-8</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A121" s="4">
         <v>119</v>
       </c>
@@ -2867,8 +3231,8 @@
       <c r="C121" s="3">
         <v>22.62</v>
       </c>
-      <c r="D121" s="2">
-        <v>1.6311729099999999E-7</v>
+      <c r="D121">
+        <v>3.3191881000000002E-8</v>
       </c>
       <c r="F121" s="2">
         <v>1.6311729099999999E-7</v>
@@ -2876,8 +3240,11 @@
       <c r="G121" s="5">
         <v>52.35</v>
       </c>
-    </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H121">
+        <v>3.3191881000000002E-8</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A122" s="4">
         <v>120</v>
       </c>
@@ -2887,8 +3254,8 @@
       <c r="C122" s="3">
         <v>22.62</v>
       </c>
-      <c r="D122" s="2">
-        <v>1.75792361E-7</v>
+      <c r="D122">
+        <v>3.4837310000000002E-8</v>
       </c>
       <c r="F122" s="2">
         <v>1.75792361E-7</v>
@@ -2896,8 +3263,11 @@
       <c r="G122" s="5">
         <v>55.95</v>
       </c>
-    </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H122">
+        <v>3.4837310000000002E-8</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A123" s="4">
         <v>121</v>
       </c>
@@ -2907,8 +3277,8 @@
       <c r="C123" s="3">
         <v>22.62</v>
       </c>
-      <c r="D123" s="2">
-        <v>1.7885455299999999E-7</v>
+      <c r="D123">
+        <v>3.6564439999999997E-8</v>
       </c>
       <c r="F123" s="2">
         <v>1.7885455299999999E-7</v>
@@ -2916,8 +3286,11 @@
       <c r="G123" s="5">
         <v>58.5</v>
       </c>
-    </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H123">
+        <v>3.6564439999999997E-8</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A124" s="4">
         <v>122</v>
       </c>
@@ -2927,8 +3300,8 @@
       <c r="C124" s="3">
         <v>22.62</v>
       </c>
-      <c r="D124" s="2">
-        <v>1.9498446E-7</v>
+      <c r="D124">
+        <v>3.8385458000000003E-8</v>
       </c>
       <c r="F124" s="2">
         <v>1.9498446E-7</v>
@@ -2936,8 +3309,11 @@
       <c r="G124" s="5">
         <v>61.95</v>
       </c>
-    </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H124">
+        <v>3.8385458000000003E-8</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A125" s="4">
         <v>123</v>
       </c>
@@ -2947,8 +3323,8 @@
       <c r="C125" s="3">
         <v>22.62</v>
       </c>
-      <c r="D125" s="2">
-        <v>1.9498446E-7</v>
+      <c r="D125">
+        <v>4.0277211000000002E-8</v>
       </c>
       <c r="F125" s="2">
         <v>1.9498446E-7</v>
@@ -2956,8 +3332,11 @@
       <c r="G125" s="5">
         <v>64.349999999999994</v>
       </c>
-    </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H125">
+        <v>4.0277211000000002E-8</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A126" s="4">
         <v>124</v>
       </c>
@@ -2967,8 +3346,8 @@
       <c r="C126" s="3">
         <v>22.62</v>
       </c>
-      <c r="D126" s="2">
-        <v>2.25164542E-7</v>
+      <c r="D126">
+        <v>4.2279320999999997E-8</v>
       </c>
       <c r="F126" s="2">
         <v>2.25164542E-7</v>
@@ -2976,8 +3355,11 @@
       <c r="G126" s="5">
         <v>67</v>
       </c>
-    </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H126">
+        <v>4.2279320999999997E-8</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A127" s="4">
         <v>125</v>
       </c>
@@ -2987,8 +3369,8 @@
       <c r="C127" s="3">
         <v>22.62</v>
       </c>
-      <c r="D127" s="2">
-        <v>2.1627185200000001E-7</v>
+      <c r="D127">
+        <v>4.3830780999999997E-8</v>
       </c>
       <c r="F127" s="2">
         <v>2.1627185200000001E-7</v>
@@ -2996,8 +3378,11 @@
       <c r="G127" s="5">
         <v>71.05</v>
       </c>
-    </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H127">
+        <v>4.3830780999999997E-8</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A128" s="4">
         <v>126</v>
       </c>
@@ -3007,8 +3392,8 @@
       <c r="C128" s="3">
         <v>22.62</v>
       </c>
-      <c r="D128" s="2">
-        <v>2.23872114E-7</v>
+      <c r="D128">
+        <v>4.6008999000000002E-8</v>
       </c>
       <c r="F128" s="2">
         <v>2.23872114E-7</v>
@@ -3016,8 +3401,11 @@
       <c r="G128" s="5">
         <v>73.400000000000006</v>
       </c>
-    </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H128">
+        <v>4.6008999000000002E-8</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A129" s="4">
         <v>127</v>
       </c>
@@ -3027,8 +3415,8 @@
       <c r="C129" s="3">
         <v>22.62</v>
       </c>
-      <c r="D129" s="2">
-        <v>2.6760855900000001E-7</v>
+      <c r="D129">
+        <v>4.8290069000000003E-8</v>
       </c>
       <c r="F129" s="2">
         <v>2.6760855900000001E-7</v>
@@ -3036,8 +3424,11 @@
       <c r="G129" s="5">
         <v>78.45</v>
       </c>
-    </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H129">
+        <v>4.8290069000000003E-8</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A130" s="4">
         <v>128</v>
       </c>
@@ -3047,8 +3438,8 @@
       <c r="C130" s="3">
         <v>22.62</v>
       </c>
-      <c r="D130" s="2">
-        <v>2.4831331100000002E-7</v>
+      <c r="D130">
+        <v>5.0700098000000002E-8</v>
       </c>
       <c r="F130" s="2">
         <v>2.4831331100000002E-7</v>
@@ -3056,8 +3447,11 @@
       <c r="G130" s="5">
         <v>23.3</v>
       </c>
-    </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H130">
+        <v>5.0700098000000002E-8</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A131" s="4">
         <v>129</v>
       </c>
@@ -3067,8 +3461,8 @@
       <c r="C131" s="3">
         <v>22.62</v>
       </c>
-      <c r="D131" s="2">
-        <v>2.8510182699999999E-7</v>
+      <c r="D131">
+        <v>5.3228209000000002E-8</v>
       </c>
       <c r="F131" s="2">
         <v>2.8510182699999999E-7</v>
@@ -3076,8 +3470,11 @@
       <c r="G131" s="5">
         <v>24.3</v>
       </c>
-    </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H131">
+        <v>5.3228209000000002E-8</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A132" s="4">
         <v>130</v>
       </c>
@@ -3087,8 +3484,8 @@
       <c r="C132" s="3">
         <v>22.62</v>
       </c>
-      <c r="D132" s="2">
-        <v>2.7227013099999999E-7</v>
+      <c r="D132">
+        <v>5.5202338999999999E-8</v>
       </c>
       <c r="F132" s="2">
         <v>2.7227013099999999E-7</v>
@@ -3096,8 +3493,11 @@
       <c r="G132" s="5">
         <v>26.15</v>
       </c>
-    </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H132">
+        <v>5.5202338999999999E-8</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A133" s="4">
         <v>131</v>
       </c>
@@ -3107,8 +3507,8 @@
       <c r="C133" s="3">
         <v>22.62</v>
       </c>
-      <c r="D133" s="2">
-        <v>2.83465363E-7</v>
+      <c r="D133">
+        <v>5.7948997999999998E-8</v>
       </c>
       <c r="F133" s="2">
         <v>2.83465363E-7</v>
@@ -3116,8 +3516,11 @@
       <c r="G133" s="5">
         <v>27.15</v>
       </c>
-    </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H133">
+        <v>5.7948997999999998E-8</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A134" s="4">
         <v>132</v>
       </c>
@@ -3127,8 +3530,8 @@
       <c r="C134" s="3">
         <v>22.62</v>
       </c>
-      <c r="D134" s="2">
-        <v>3.40800325E-7</v>
+      <c r="D134">
+        <v>6.0814408000000002E-8</v>
       </c>
       <c r="F134" s="2">
         <v>3.40800325E-7</v>
@@ -3136,8 +3539,11 @@
       <c r="G134" s="5">
         <v>28.85</v>
       </c>
-    </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H134">
+        <v>6.0814408000000002E-8</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A135" s="4">
         <v>133</v>
       </c>
@@ -3147,8 +3553,8 @@
       <c r="C135" s="3">
         <v>22.62</v>
       </c>
-      <c r="D135" s="2">
-        <v>3.1441264200000002E-7</v>
+      <c r="D135">
+        <v>6.3831479000000001E-8</v>
       </c>
       <c r="F135" s="2">
         <v>3.1441264200000002E-7</v>
@@ -3156,48 +3562,51 @@
       <c r="G135" s="5">
         <v>30.05</v>
       </c>
-    </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H135">
+        <v>6.3831479000000001E-8</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A136" s="4"/>
       <c r="B136" s="2"/>
       <c r="C136" s="3"/>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="137" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A137" s="4"/>
       <c r="B137" s="2"/>
       <c r="C137" s="3"/>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="138" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A138" s="4"/>
       <c r="B138" s="2"/>
       <c r="C138" s="3"/>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="139" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A139" s="4"/>
       <c r="B139" s="2"/>
       <c r="C139" s="3"/>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="140" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A140" s="4"/>
       <c r="B140" s="2"/>
       <c r="C140" s="3"/>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="141" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A141" s="4"/>
       <c r="B141" s="2"/>
       <c r="C141" s="3"/>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="142" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A142" s="4"/>
       <c r="B142" s="2"/>
       <c r="C142" s="3"/>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="143" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A143" s="4"/>
       <c r="B143" s="2"/>
       <c r="C143" s="3"/>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="144" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A144" s="4"/>
       <c r="B144" s="2"/>
       <c r="C144" s="3"/>

--- a/History/FR/history_21.xlsx
+++ b/History/FR/history_21.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\Programs\Reactivity_Analyzer\C++\Euler\History\FR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19376D7B-8FA8-4EC8-B11D-B7A52A5ADD9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B037760-503F-4B72-8D9E-B0113B7EBBD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -452,8 +452,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H9301"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D135"/>
+    <sheetView tabSelected="1" topLeftCell="A117" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D1" sqref="A1:D135"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -494,8 +494,8 @@
       <c r="C2" s="3">
         <v>22.62</v>
       </c>
-      <c r="D2">
-        <v>5.62889E-10</v>
+      <c r="D2" s="2">
+        <v>2.5556419999999999E-9</v>
       </c>
       <c r="F2" s="2">
         <v>2.5556419999999999E-9</v>
@@ -517,8 +517,8 @@
       <c r="C3" s="3">
         <v>22.62</v>
       </c>
-      <c r="D3">
-        <v>5.63311E-10</v>
+      <c r="D3" s="2">
+        <v>1.98381E-9</v>
       </c>
       <c r="F3" s="2">
         <v>1.98381E-9</v>
@@ -540,8 +540,8 @@
       <c r="C4" s="3">
         <v>22.62</v>
       </c>
-      <c r="D4">
-        <v>5.64335E-10</v>
+      <c r="D4" s="2">
+        <v>2.483133E-9</v>
       </c>
       <c r="F4" s="2">
         <v>2.483133E-9</v>
@@ -563,8 +563,8 @@
       <c r="C5" s="3">
         <v>22.62</v>
       </c>
-      <c r="D5">
-        <v>5.6599699999999998E-10</v>
+      <c r="D5" s="2">
+        <v>1.8197009999999999E-9</v>
       </c>
       <c r="F5" s="2">
         <v>1.8197009999999999E-9</v>
@@ -586,8 +586,8 @@
       <c r="C6" s="3">
         <v>22.62</v>
       </c>
-      <c r="D6">
-        <v>5.6721900000000002E-10</v>
+      <c r="D6" s="2">
+        <v>2.1379620000000001E-9</v>
       </c>
       <c r="F6" s="2">
         <v>2.1379620000000001E-9</v>
@@ -609,8 +609,8 @@
       <c r="C7" s="3">
         <v>22.62</v>
       </c>
-      <c r="D7">
-        <v>5.6839000000000004E-10</v>
+      <c r="D7" s="2">
+        <v>1.2735029999999999E-9</v>
       </c>
       <c r="F7" s="2">
         <v>1.2735029999999999E-9</v>
@@ -632,8 +632,8 @@
       <c r="C8" s="3">
         <v>22.62</v>
       </c>
-      <c r="D8">
-        <v>5.6902500000000001E-10</v>
+      <c r="D8" s="2">
+        <v>2.3713739999999999E-9</v>
       </c>
       <c r="F8" s="2">
         <v>2.3713739999999999E-9</v>
@@ -655,8 +655,8 @@
       <c r="C9" s="3">
         <v>22.62</v>
       </c>
-      <c r="D9">
-        <v>5.70193E-10</v>
+      <c r="D9" s="2">
+        <v>2.9174269999999998E-9</v>
       </c>
       <c r="F9" s="2">
         <v>2.9174269999999998E-9</v>
@@ -678,8 +678,8 @@
       <c r="C10" s="3">
         <v>22.62</v>
       </c>
-      <c r="D10">
-        <v>5.7173399999999998E-10</v>
+      <c r="D10" s="2">
+        <v>2.2130950000000002E-9</v>
       </c>
       <c r="F10" s="2">
         <v>2.2130950000000002E-9</v>
@@ -701,8 +701,8 @@
       <c r="C11" s="3">
         <v>22.62</v>
       </c>
-      <c r="D11">
-        <v>5.7327100000000004E-10</v>
+      <c r="D11" s="2">
+        <v>2.5703960000000001E-9</v>
       </c>
       <c r="F11" s="2">
         <v>2.5703960000000001E-9</v>
@@ -724,8 +724,8 @@
       <c r="C12" s="3">
         <v>22.62</v>
       </c>
-      <c r="D12">
-        <v>5.7505699999999995E-10</v>
+      <c r="D12" s="2">
+        <v>1.9275249999999999E-9</v>
       </c>
       <c r="F12" s="2">
         <v>1.9275249999999999E-9</v>
@@ -747,8 +747,8 @@
       <c r="C13" s="3">
         <v>22.62</v>
       </c>
-      <c r="D13">
-        <v>5.7685599999999998E-10</v>
+      <c r="D13" s="2">
+        <v>2.5703960000000001E-9</v>
       </c>
       <c r="F13" s="2">
         <v>2.5703960000000001E-9</v>
@@ -770,8 +770,8 @@
       <c r="C14" s="3">
         <v>22.62</v>
       </c>
-      <c r="D14">
-        <v>5.7959800000000003E-10</v>
+      <c r="D14" s="2">
+        <v>1.3724609999999999E-9</v>
       </c>
       <c r="F14" s="2">
         <v>1.3724609999999999E-9</v>
@@ -793,8 +793,8 @@
       <c r="C15" s="3">
         <v>22.62</v>
       </c>
-      <c r="D15">
-        <v>5.8181700000000004E-10</v>
+      <c r="D15" s="2">
+        <v>2.630268E-9</v>
       </c>
       <c r="F15" s="2">
         <v>2.630268E-9</v>
@@ -816,8 +816,8 @@
       <c r="C16" s="3">
         <v>22.62</v>
       </c>
-      <c r="D16">
-        <v>5.8412800000000001E-10</v>
+      <c r="D16" s="2">
+        <v>2.3173949999999999E-9</v>
       </c>
       <c r="F16" s="2">
         <v>2.3173949999999999E-9</v>
@@ -839,8 +839,8 @@
       <c r="C17" s="3">
         <v>22.62</v>
       </c>
-      <c r="D17">
-        <v>5.8761799999999997E-10</v>
+      <c r="D17" s="2">
+        <v>2.3040930000000002E-9</v>
       </c>
       <c r="F17" s="2">
         <v>2.3040930000000002E-9</v>
@@ -862,8 +862,8 @@
       <c r="C18" s="3">
         <v>22.62</v>
       </c>
-      <c r="D18">
-        <v>5.9150999999999996E-10</v>
+      <c r="D18" s="2">
+        <v>1.7179080000000001E-9</v>
       </c>
       <c r="F18" s="2">
         <v>1.7179080000000001E-9</v>
@@ -885,8 +885,8 @@
       <c r="C19" s="3">
         <v>22.62</v>
       </c>
-      <c r="D19">
-        <v>5.9417599999999998E-10</v>
+      <c r="D19" s="2">
+        <v>2.1627189999999998E-9</v>
       </c>
       <c r="F19" s="2">
         <v>2.1627189999999998E-9</v>
@@ -908,8 +908,8 @@
       <c r="C20" s="3">
         <v>22.62</v>
       </c>
-      <c r="D20">
-        <v>5.98253E-10</v>
+      <c r="D20" s="2">
+        <v>2.9174269999999998E-9</v>
       </c>
       <c r="F20" s="2">
         <v>2.9174269999999998E-9</v>
@@ -931,8 +931,8 @@
       <c r="C21" s="3">
         <v>22.62</v>
       </c>
-      <c r="D21">
-        <v>6.0187499999999995E-10</v>
+      <c r="D21" s="2">
+        <v>1.5940429999999999E-9</v>
       </c>
       <c r="F21" s="2">
         <v>1.5940429999999999E-9</v>
@@ -954,8 +954,8 @@
       <c r="C22" s="3">
         <v>22.62</v>
       </c>
-      <c r="D22">
-        <v>6.0589500000000001E-10</v>
+      <c r="D22" s="2">
+        <v>2.8510180000000001E-9</v>
       </c>
       <c r="F22" s="2">
         <v>2.8510180000000001E-9</v>
@@ -977,8 +977,8 @@
       <c r="C23" s="3">
         <v>22.62</v>
       </c>
-      <c r="D23">
-        <v>6.1080799999999997E-10</v>
+      <c r="D23" s="2">
+        <v>2.0417379999999998E-9</v>
       </c>
       <c r="F23" s="2">
         <v>2.0417379999999998E-9</v>
@@ -1000,8 +1000,8 @@
       <c r="C24" s="3">
         <v>22.62</v>
       </c>
-      <c r="D24">
-        <v>6.1604800000000004E-10</v>
+      <c r="D24" s="2">
+        <v>2.4547090000000002E-9</v>
       </c>
       <c r="F24" s="2">
         <v>2.4547090000000002E-9</v>
@@ -1023,8 +1023,8 @@
       <c r="C25" s="3">
         <v>22.62</v>
       </c>
-      <c r="D25">
-        <v>6.1997500000000002E-10</v>
+      <c r="D25" s="2">
+        <v>1.575796E-9</v>
       </c>
       <c r="F25" s="2">
         <v>1.575796E-9</v>
@@ -1046,8 +1046,8 @@
       <c r="C26" s="3">
         <v>22.62</v>
       </c>
-      <c r="D26">
-        <v>6.2541000000000001E-10</v>
+      <c r="D26" s="2">
+        <v>2.3713739999999999E-9</v>
       </c>
       <c r="F26" s="2">
         <v>2.3713739999999999E-9</v>
@@ -1069,8 +1069,8 @@
       <c r="C27" s="3">
         <v>22.62</v>
       </c>
-      <c r="D27">
-        <v>6.3134799999999998E-10</v>
+      <c r="D27" s="2">
+        <v>2.8183830000000001E-9</v>
       </c>
       <c r="F27" s="2">
         <v>2.8183830000000001E-9</v>
@@ -1092,8 +1092,8 @@
       <c r="C28" s="3">
         <v>22.62</v>
       </c>
-      <c r="D28">
-        <v>6.3770899999999995E-10</v>
+      <c r="D28" s="2">
+        <v>2.4266100000000002E-9</v>
       </c>
       <c r="F28" s="2">
         <v>2.4266100000000002E-9</v>
@@ -1115,8 +1115,8 @@
       <c r="C29" s="3">
         <v>22.62</v>
       </c>
-      <c r="D29">
-        <v>6.46115E-10</v>
+      <c r="D29" s="2">
+        <v>3.3884420000000002E-9</v>
       </c>
       <c r="F29" s="2">
         <v>3.3884420000000002E-9</v>
@@ -1138,8 +1138,8 @@
       <c r="C30" s="3">
         <v>22.62</v>
       </c>
-      <c r="D30">
-        <v>6.5357000000000005E-10</v>
+      <c r="D30" s="2">
+        <v>2.676086E-9</v>
       </c>
       <c r="F30" s="2">
         <v>2.676086E-9</v>
@@ -1161,8 +1161,8 @@
       <c r="C31" s="3">
         <v>22.62</v>
       </c>
-      <c r="D31">
-        <v>6.6367000000000005E-10</v>
+      <c r="D31" s="2">
+        <v>3.3689920000000002E-9</v>
       </c>
       <c r="F31" s="2">
         <v>3.3689920000000002E-9</v>
@@ -1184,8 +1184,8 @@
       <c r="C32" s="3">
         <v>22.62</v>
       </c>
-      <c r="D32">
-        <v>6.7550400000000003E-10</v>
+      <c r="D32" s="2">
+        <v>2.630268E-9</v>
       </c>
       <c r="F32" s="2">
         <v>2.630268E-9</v>
@@ -1207,8 +1207,8 @@
       <c r="C33" s="3">
         <v>22.62</v>
       </c>
-      <c r="D33">
-        <v>6.8788799999999997E-10</v>
+      <c r="D33" s="2">
+        <v>3.180534E-9</v>
       </c>
       <c r="F33" s="2">
         <v>3.180534E-9</v>
@@ -1230,8 +1230,8 @@
       <c r="C34" s="3">
         <v>22.62</v>
       </c>
-      <c r="D34">
-        <v>7.0175300000000001E-10</v>
+      <c r="D34" s="2">
+        <v>2.4974679999999998E-9</v>
       </c>
       <c r="F34" s="2">
         <v>2.4974679999999998E-9</v>
@@ -1253,8 +1253,8 @@
       <c r="C35" s="3">
         <v>22.62</v>
       </c>
-      <c r="D35">
-        <v>7.1647599999999996E-10</v>
+      <c r="D35" s="2">
+        <v>3.507519E-9</v>
       </c>
       <c r="F35" s="2">
         <v>3.507519E-9</v>
@@ -1276,8 +1276,8 @@
       <c r="C36" s="3">
         <v>22.62</v>
       </c>
-      <c r="D36">
-        <v>7.2927799999999997E-10</v>
+      <c r="D36" s="2">
+        <v>2.2130950000000002E-9</v>
       </c>
       <c r="F36" s="2">
         <v>2.2130950000000002E-9</v>
@@ -1299,8 +1299,8 @@
       <c r="C37" s="3">
         <v>22.62</v>
       </c>
-      <c r="D37">
-        <v>7.4928799999999999E-10</v>
+      <c r="D37" s="2">
+        <v>3.5892189999999998E-9</v>
       </c>
       <c r="F37" s="2">
         <v>3.5892189999999998E-9</v>
@@ -1322,8 +1322,8 @@
       <c r="C38" s="3">
         <v>22.62</v>
       </c>
-      <c r="D38">
-        <v>7.7029100000000004E-10</v>
+      <c r="D38" s="2">
+        <v>3.2359370000000002E-9</v>
       </c>
       <c r="F38" s="2">
         <v>3.2359370000000002E-9</v>
@@ -1345,8 +1345,8 @@
       <c r="C39" s="3">
         <v>22.62</v>
       </c>
-      <c r="D39">
-        <v>7.9206399999999999E-10</v>
+      <c r="D39" s="2">
+        <v>3.4474659999999998E-9</v>
       </c>
       <c r="F39" s="2">
         <v>3.4474659999999998E-9</v>
@@ -1368,8 +1368,8 @@
       <c r="C40" s="3">
         <v>22.62</v>
       </c>
-      <c r="D40">
-        <v>8.1451499999999995E-10</v>
+      <c r="D40" s="2">
+        <v>2.5118860000000001E-9</v>
       </c>
       <c r="F40" s="2">
         <v>2.5118860000000001E-9</v>
@@ -1391,8 +1391,8 @@
       <c r="C41" s="3">
         <v>22.62</v>
       </c>
-      <c r="D41">
-        <v>8.3810200000000005E-10</v>
+      <c r="D41" s="2">
+        <v>3.4873859999999999E-9</v>
       </c>
       <c r="F41" s="2">
         <v>3.4873859999999999E-9</v>
@@ -1414,8 +1414,8 @@
       <c r="C42" s="3">
         <v>22.62</v>
       </c>
-      <c r="D42">
-        <v>8.5578400000000005E-10</v>
+      <c r="D42" s="2">
+        <v>4.926063E-9</v>
       </c>
       <c r="F42" s="2">
         <v>4.926063E-9</v>
@@ -1437,8 +1437,8 @@
       <c r="C43" s="3">
         <v>22.62</v>
       </c>
-      <c r="D43">
-        <v>8.8217099999999997E-10</v>
+      <c r="D43" s="2">
+        <v>3.9129109999999998E-9</v>
       </c>
       <c r="F43" s="2">
         <v>3.9129109999999998E-9</v>
@@ -1460,8 +1460,8 @@
       <c r="C44" s="3">
         <v>22.62</v>
       </c>
-      <c r="D44">
-        <v>9.1096200000000004E-10</v>
+      <c r="D44" s="2">
+        <v>4.8696749999999997E-9</v>
       </c>
       <c r="F44" s="2">
         <v>4.8696749999999997E-9</v>
@@ -1483,8 +1483,8 @@
       <c r="C45" s="3">
         <v>22.62</v>
       </c>
-      <c r="D45">
-        <v>9.4139299999999992E-10</v>
+      <c r="D45" s="2">
+        <v>4.265795E-9</v>
       </c>
       <c r="F45" s="2">
         <v>4.265795E-9</v>
@@ -1506,8 +1506,8 @@
       <c r="C46" s="3">
         <v>22.62</v>
       </c>
-      <c r="D46">
-        <v>9.7541799999999991E-10</v>
+      <c r="D46" s="2">
+        <v>4.926063E-9</v>
       </c>
       <c r="F46" s="2">
         <v>4.926063E-9</v>
@@ -1529,8 +1529,8 @@
       <c r="C47" s="3">
         <v>22.62</v>
       </c>
-      <c r="D47">
-        <v>1.000893E-9</v>
+      <c r="D47" s="2">
+        <v>4.1447659999999999E-9</v>
       </c>
       <c r="F47" s="2">
         <v>4.1447659999999999E-9</v>
@@ -1552,8 +1552,8 @@
       <c r="C48" s="3">
         <v>22.62</v>
       </c>
-      <c r="D48">
-        <v>1.036209E-9</v>
+      <c r="D48" s="2">
+        <v>5.0118720000000002E-9</v>
       </c>
       <c r="F48" s="2">
         <v>5.0118720000000002E-9</v>
@@ -1575,8 +1575,8 @@
       <c r="C49" s="3">
         <v>22.62</v>
       </c>
-      <c r="D49">
-        <v>1.074271E-9</v>
+      <c r="D49" s="2">
+        <v>3.9355010000000002E-9</v>
       </c>
       <c r="F49" s="2">
         <v>3.9355010000000002E-9</v>
@@ -1598,8 +1598,8 @@
       <c r="C50" s="3">
         <v>22.62</v>
       </c>
-      <c r="D50">
-        <v>1.116151E-9</v>
+      <c r="D50" s="2">
+        <v>5.559043E-9</v>
       </c>
       <c r="F50" s="2">
         <v>5.559043E-9</v>
@@ -1621,8 +1621,8 @@
       <c r="C51" s="3">
         <v>22.62</v>
       </c>
-      <c r="D51">
-        <v>1.1623859999999999E-9</v>
+      <c r="D51" s="2">
+        <v>7.1614339999999998E-9</v>
       </c>
       <c r="F51" s="2">
         <v>7.1614339999999998E-9</v>
@@ -1644,8 +1644,8 @@
       <c r="C52" s="3">
         <v>22.62</v>
       </c>
-      <c r="D52">
-        <v>1.215487E-9</v>
+      <c r="D52" s="2">
+        <v>5.956621E-9</v>
       </c>
       <c r="F52" s="2">
         <v>5.956621E-9</v>
@@ -1667,8 +1667,8 @@
       <c r="C53" s="3">
         <v>22.62</v>
       </c>
-      <c r="D53">
-        <v>1.258103E-9</v>
+      <c r="D53" s="2">
+        <v>6.9183099999999999E-9</v>
       </c>
       <c r="F53" s="2">
         <v>6.9183099999999999E-9</v>
@@ -1690,8 +1690,8 @@
       <c r="C54" s="3">
         <v>22.62</v>
       </c>
-      <c r="D54">
-        <v>1.3206459999999999E-9</v>
+      <c r="D54" s="2">
+        <v>6.5690110000000002E-9</v>
       </c>
       <c r="F54" s="2">
         <v>6.5690110000000002E-9</v>
@@ -1713,8 +1713,8 @@
       <c r="C55" s="3">
         <v>22.62</v>
       </c>
-      <c r="D55">
-        <v>1.3886010000000001E-9</v>
+      <c r="D55" s="2">
+        <v>7.7179149999999994E-9</v>
       </c>
       <c r="F55" s="2">
         <v>7.7179149999999994E-9</v>
@@ -1736,8 +1736,8 @@
       <c r="C56" s="3">
         <v>22.62</v>
       </c>
-      <c r="D56">
-        <v>1.461576E-9</v>
+      <c r="D56" s="2">
+        <v>6.237348E-9</v>
       </c>
       <c r="F56" s="2">
         <v>6.237348E-9</v>
@@ -1759,8 +1759,8 @@
       <c r="C57" s="3">
         <v>22.62</v>
       </c>
-      <c r="D57">
-        <v>1.517943E-9</v>
+      <c r="D57" s="2">
+        <v>7.9891389999999992E-9</v>
       </c>
       <c r="F57" s="2">
         <v>7.9891389999999992E-9</v>
@@ -1782,8 +1782,8 @@
       <c r="C58" s="3">
         <v>22.62</v>
       </c>
-      <c r="D58">
-        <v>2.2607400000000002E-9</v>
+      <c r="D58" s="2">
+        <v>9.3325429999999998E-9</v>
       </c>
       <c r="F58" s="2">
         <v>9.3325429999999998E-9</v>
@@ -1805,8 +1805,8 @@
       <c r="C59" s="3">
         <v>22.62</v>
       </c>
-      <c r="D59">
-        <v>2.2659010000000001E-9</v>
+      <c r="D59" s="2">
+        <v>8.9125090000000008E-9</v>
       </c>
       <c r="F59" s="2">
         <v>8.9125090000000008E-9</v>
@@ -1828,8 +1828,8 @@
       <c r="C60" s="3">
         <v>22.62</v>
       </c>
-      <c r="D60">
-        <v>2.2727959999999998E-9</v>
+      <c r="D60" s="2">
+        <v>9.6605090000000003E-9</v>
       </c>
       <c r="F60" s="2">
         <v>9.6605090000000003E-9</v>
@@ -1851,8 +1851,8 @@
       <c r="C61" s="3">
         <v>22.62</v>
       </c>
-      <c r="D61">
-        <v>2.2913440000000001E-9</v>
+      <c r="D61" s="2">
+        <v>9.6050579999999993E-9</v>
       </c>
       <c r="F61" s="2">
         <v>9.6050579999999993E-9</v>
@@ -1874,8 +1874,8 @@
       <c r="C62" s="3">
         <v>22.62</v>
       </c>
-      <c r="D62">
-        <v>2.3218579999999999E-9</v>
+      <c r="D62" s="2">
+        <v>1.1816802999999999E-8</v>
       </c>
       <c r="F62" s="2">
         <v>1.1816802999999999E-8</v>
@@ -1897,8 +1897,8 @@
       <c r="C63" s="3">
         <v>22.62</v>
       </c>
-      <c r="D63">
-        <v>2.3697989999999999E-9</v>
+      <c r="D63" s="2">
+        <v>1.0839269E-8</v>
       </c>
       <c r="F63" s="2">
         <v>1.0839269E-8</v>
@@ -1920,8 +1920,8 @@
       <c r="C64" s="3">
         <v>22.62</v>
       </c>
-      <c r="D64">
-        <v>2.414542E-9</v>
+      <c r="D64" s="2">
+        <v>1.1748976E-8</v>
       </c>
       <c r="F64" s="2">
         <v>1.1748976E-8</v>
@@ -1943,8 +1943,8 @@
       <c r="C65" s="3">
         <v>22.62</v>
       </c>
-      <c r="D65">
-        <v>2.48445E-9</v>
+      <c r="D65" s="2">
+        <v>1.1350108E-8</v>
       </c>
       <c r="F65" s="2">
         <v>1.1350108E-8</v>
@@ -1966,8 +1966,8 @@
       <c r="C66" s="3">
         <v>22.62</v>
       </c>
-      <c r="D66">
-        <v>2.5702109999999999E-9</v>
+      <c r="D66" s="2">
+        <v>1.2661933E-8</v>
       </c>
       <c r="F66" s="2">
         <v>1.2661933E-8</v>
@@ -1989,8 +1989,8 @@
       <c r="C67" s="3">
         <v>22.62</v>
       </c>
-      <c r="D67">
-        <v>2.6738780000000001E-9</v>
+      <c r="D67" s="2">
+        <v>1.2735031E-8</v>
       </c>
       <c r="F67" s="2">
         <v>1.2735031E-8</v>
@@ -2012,8 +2012,8 @@
       <c r="C68" s="3">
         <v>22.62</v>
       </c>
-      <c r="D68">
-        <v>2.797783E-9</v>
+      <c r="D68" s="2">
+        <v>1.3803843E-8</v>
       </c>
       <c r="F68" s="2">
         <v>1.3803843E-8</v>
@@ -2035,8 +2035,8 @@
       <c r="C69" s="3">
         <v>22.62</v>
       </c>
-      <c r="D69">
-        <v>2.9304019999999999E-9</v>
+      <c r="D69" s="2">
+        <v>1.3489629E-8</v>
       </c>
       <c r="F69" s="2">
         <v>1.3489629E-8</v>
@@ -2058,8 +2058,8 @@
       <c r="C70" s="3">
         <v>22.62</v>
       </c>
-      <c r="D70">
-        <v>3.0447860000000002E-9</v>
+      <c r="D70" s="2">
+        <v>1.5310875E-8</v>
       </c>
       <c r="F70" s="2">
         <v>1.5310875E-8</v>
@@ -2081,8 +2081,8 @@
       <c r="C71" s="3">
         <v>22.62</v>
       </c>
-      <c r="D71">
-        <v>3.2065770000000002E-9</v>
+      <c r="D71" s="2">
+        <v>1.6218100999999999E-8</v>
       </c>
       <c r="F71" s="2">
         <v>1.6218100999999999E-8</v>
@@ -2104,8 +2104,8 @@
       <c r="C72" s="3">
         <v>22.62</v>
       </c>
-      <c r="D72">
-        <v>3.373539E-9</v>
+      <c r="D72" s="2">
+        <v>1.6595869E-8</v>
       </c>
       <c r="F72" s="2">
         <v>1.6595869E-8</v>
@@ -2127,8 +2127,8 @@
       <c r="C73" s="3">
         <v>22.62</v>
       </c>
-      <c r="D73">
-        <v>3.5523349999999998E-9</v>
+      <c r="D73" s="2">
+        <v>2.0653802000000001E-8</v>
       </c>
       <c r="F73" s="2">
         <v>2.0653802000000001E-8</v>
@@ -2150,8 +2150,8 @@
       <c r="C74" s="3">
         <v>22.62</v>
       </c>
-      <c r="D74">
-        <v>3.7367379999999998E-9</v>
+      <c r="D74" s="2">
+        <v>1.8513988999999999E-8</v>
       </c>
       <c r="F74" s="2">
         <v>1.8513988999999999E-8</v>
@@ -2173,8 +2173,8 @@
       <c r="C75" s="3">
         <v>22.62</v>
       </c>
-      <c r="D75">
-        <v>3.9273799999999997E-9</v>
+      <c r="D75" s="2">
+        <v>2.0067811000000001E-8</v>
       </c>
       <c r="F75" s="2">
         <v>2.0067811000000001E-8</v>
@@ -2196,8 +2196,8 @@
       <c r="C76" s="3">
         <v>22.62</v>
       </c>
-      <c r="D76">
-        <v>4.0770810000000001E-9</v>
+      <c r="D76" s="2">
+        <v>2.0183663999999999E-8</v>
       </c>
       <c r="F76" s="2">
         <v>2.0183663999999999E-8</v>
@@ -2219,8 +2219,8 @@
       <c r="C77" s="3">
         <v>22.62</v>
       </c>
-      <c r="D77">
-        <v>4.2871600000000003E-9</v>
+      <c r="D77" s="2">
+        <v>2.2908677E-8</v>
       </c>
       <c r="F77" s="2">
         <v>2.2908677E-8</v>
@@ -2242,8 +2242,8 @@
       <c r="C78" s="3">
         <v>22.62</v>
       </c>
-      <c r="D78">
-        <v>4.5056120000000003E-9</v>
+      <c r="D78" s="2">
+        <v>2.2258710000000001E-8</v>
       </c>
       <c r="F78" s="2">
         <v>2.2258710000000001E-8</v>
@@ -2265,8 +2265,8 @@
       <c r="C79" s="3">
         <v>22.62</v>
       </c>
-      <c r="D79">
-        <v>4.7288209999999997E-9</v>
+      <c r="D79" s="2">
+        <v>2.4547089E-8</v>
       </c>
       <c r="F79" s="2">
         <v>2.4547089E-8</v>
@@ -2288,8 +2288,8 @@
       <c r="C80" s="3">
         <v>22.62</v>
       </c>
-      <c r="D80">
-        <v>4.9722699999999998E-9</v>
+      <c r="D80" s="2">
+        <v>2.4547089E-8</v>
       </c>
       <c r="F80" s="2">
         <v>2.4547089E-8</v>
@@ -2311,8 +2311,8 @@
       <c r="C81" s="3">
         <v>22.62</v>
       </c>
-      <c r="D81">
-        <v>5.1592050000000001E-9</v>
+      <c r="D81" s="2">
+        <v>2.5556418999999999E-8</v>
       </c>
       <c r="F81" s="2">
         <v>2.5556418999999999E-8</v>
@@ -2334,8 +2334,8 @@
       <c r="C82" s="3">
         <v>22.62</v>
       </c>
-      <c r="D82">
-        <v>5.421259E-9</v>
+      <c r="D82" s="2">
+        <v>2.6302680000000001E-8</v>
       </c>
       <c r="F82" s="2">
         <v>2.6302680000000001E-8</v>
@@ -2357,8 +2357,8 @@
       <c r="C83" s="3">
         <v>22.62</v>
       </c>
-      <c r="D83">
-        <v>5.695527E-9</v>
+      <c r="D83" s="2">
+        <v>2.7861211999999999E-8</v>
       </c>
       <c r="F83" s="2">
         <v>2.7861211999999999E-8</v>
@@ -2380,8 +2380,8 @@
       <c r="C84" s="3">
         <v>22.62</v>
       </c>
-      <c r="D84">
-        <v>5.9791020000000004E-9</v>
+      <c r="D84" s="2">
+        <v>2.917427E-8</v>
       </c>
       <c r="F84" s="2">
         <v>2.917427E-8</v>
@@ -2403,8 +2403,8 @@
       <c r="C85" s="3">
         <v>22.62</v>
       </c>
-      <c r="D85">
-        <v>6.2786990000000003E-9</v>
+      <c r="D85" s="2">
+        <v>3.0725574000000003E-8</v>
       </c>
       <c r="F85" s="2">
         <v>3.0725574000000003E-8</v>
@@ -2426,8 +2426,8 @@
       <c r="C86" s="3">
         <v>22.62</v>
       </c>
-      <c r="D86">
-        <v>6.5924109999999999E-9</v>
+      <c r="D86" s="2">
+        <v>3.2359366000000003E-8</v>
       </c>
       <c r="F86" s="2">
         <v>3.2359366000000003E-8</v>
@@ -2449,8 +2449,8 @@
       <c r="C87" s="3">
         <v>22.62</v>
       </c>
-      <c r="D87">
-        <v>6.8380150000000004E-9</v>
+      <c r="D87" s="2">
+        <v>3.4673684999999999E-8</v>
       </c>
       <c r="F87" s="2">
         <v>3.4673684999999999E-8</v>
@@ -2472,8 +2472,8 @@
       <c r="C88" s="3">
         <v>22.62</v>
       </c>
-      <c r="D88">
-        <v>7.1797320000000002E-9</v>
+      <c r="D88" s="2">
+        <v>3.9129112999999999E-8</v>
       </c>
       <c r="F88" s="2">
         <v>3.9129112999999999E-8</v>
@@ -2495,8 +2495,8 @@
       <c r="C89" s="3">
         <v>22.62</v>
       </c>
-      <c r="D89">
-        <v>7.5347919999999992E-9</v>
+      <c r="D89" s="2">
+        <v>3.6728229999999997E-8</v>
       </c>
       <c r="F89" s="2">
         <v>3.6728229999999997E-8</v>
@@ -2518,8 +2518,8 @@
       <c r="C90" s="3">
         <v>22.62</v>
       </c>
-      <c r="D90">
-        <v>7.9131170000000004E-9</v>
+      <c r="D90" s="2">
+        <v>3.9810716999999997E-8</v>
       </c>
       <c r="F90" s="2">
         <v>3.9810716999999997E-8</v>
@@ -2541,8 +2541,8 @@
       <c r="C91" s="3">
         <v>22.62</v>
       </c>
-      <c r="D91">
-        <v>8.3109170000000008E-9</v>
+      <c r="D91" s="2">
+        <v>4.1447657999999998E-8</v>
       </c>
       <c r="F91" s="2">
         <v>4.1447657999999998E-8</v>
@@ -2564,8 +2564,8 @@
       <c r="C92" s="3">
         <v>22.62</v>
       </c>
-      <c r="D92">
-        <v>8.7245709999999993E-9</v>
+      <c r="D92" s="2">
+        <v>4.2904218999999999E-8</v>
       </c>
       <c r="F92" s="2">
         <v>4.2904218999999999E-8</v>
@@ -2587,8 +2587,8 @@
       <c r="C93" s="3">
         <v>22.62</v>
       </c>
-      <c r="D93">
-        <v>9.0454910000000003E-9</v>
+      <c r="D93" s="2">
+        <v>4.4668358999999999E-8</v>
       </c>
       <c r="F93" s="2">
         <v>4.4668358999999999E-8</v>
@@ -2610,8 +2610,8 @@
       <c r="C94" s="3">
         <v>22.62</v>
       </c>
-      <c r="D94">
-        <v>9.4960560000000008E-9</v>
+      <c r="D94" s="2">
+        <v>4.6505037999999997E-8</v>
       </c>
       <c r="F94" s="2">
         <v>4.6505037999999997E-8</v>
@@ -2633,8 +2633,8 @@
       <c r="C95" s="3">
         <v>22.62</v>
       </c>
-      <c r="D95">
-        <v>9.9739389999999993E-9</v>
+      <c r="D95" s="2">
+        <v>5.1582216999999998E-8</v>
       </c>
       <c r="F95" s="2">
         <v>5.1582216999999998E-8</v>
@@ -2656,8 +2656,8 @@
       <c r="C96" s="3">
         <v>22.62</v>
       </c>
-      <c r="D96">
-        <v>1.047605E-8</v>
+      <c r="D96" s="2">
+        <v>5.0991760000000001E-8</v>
       </c>
       <c r="F96" s="2">
         <v>5.0991760000000001E-8</v>
@@ -2679,8 +2679,8 @@
       <c r="C97" s="3">
         <v>22.62</v>
       </c>
-      <c r="D97">
-        <v>1.099582E-8</v>
+      <c r="D97" s="2">
+        <v>5.7213694999999997E-8</v>
       </c>
       <c r="F97" s="2">
         <v>5.7213694999999997E-8</v>
@@ -2702,8 +2702,8 @@
       <c r="C98" s="3">
         <v>22.62</v>
       </c>
-      <c r="D98">
-        <v>1.140476E-8</v>
+      <c r="D98" s="2">
+        <v>5.6234132999999999E-8</v>
       </c>
       <c r="F98" s="2">
         <v>5.6234132999999999E-8</v>
@@ -2725,8 +2725,8 @@
       <c r="C99" s="3">
         <v>22.62</v>
       </c>
-      <c r="D99">
-        <v>1.197126E-8</v>
+      <c r="D99" s="2">
+        <v>6.6069345000000002E-8</v>
       </c>
       <c r="F99" s="2">
         <v>6.6069345000000002E-8</v>
@@ -2748,8 +2748,8 @@
       <c r="C100" s="3">
         <v>22.62</v>
       </c>
-      <c r="D100">
-        <v>1.2572770000000001E-8</v>
+      <c r="D100" s="2">
+        <v>6.1659499999999997E-8</v>
       </c>
       <c r="F100" s="2">
         <v>6.1659499999999997E-8</v>
@@ -2771,8 +2771,8 @@
       <c r="C101" s="3">
         <v>22.62</v>
       </c>
-      <c r="D101">
-        <v>1.320104E-8</v>
+      <c r="D101" s="2">
+        <v>6.4565422999999995E-8</v>
       </c>
       <c r="F101" s="2">
         <v>6.4565422999999995E-8</v>
@@ -2794,8 +2794,8 @@
       <c r="C102" s="3">
         <v>22.62</v>
       </c>
-      <c r="D102">
-        <v>1.3848450000000001E-8</v>
+      <c r="D102" s="2">
+        <v>7.5857757999999999E-8</v>
       </c>
       <c r="F102" s="2">
         <v>7.5857757999999999E-8</v>
@@ -2817,8 +2817,8 @@
       <c r="C103" s="3">
         <v>22.62</v>
       </c>
-      <c r="D103">
-        <v>1.45352E-8</v>
+      <c r="D103" s="2">
+        <v>7.0794577999999997E-8</v>
       </c>
       <c r="F103" s="2">
         <v>7.0794577999999997E-8</v>
@@ -2840,8 +2840,8 @@
       <c r="C104" s="3">
         <v>22.62</v>
       </c>
-      <c r="D104">
-        <v>1.5074489E-8</v>
+      <c r="D104" s="2">
+        <v>8.0352612E-8</v>
       </c>
       <c r="F104" s="2">
         <v>8.0352612E-8</v>
@@ -2863,8 +2863,8 @@
       <c r="C105" s="3">
         <v>22.62</v>
       </c>
-      <c r="D105">
-        <v>1.5631571E-8</v>
+      <c r="D105" s="2">
+        <v>7.8523562999999999E-8</v>
       </c>
       <c r="F105" s="2">
         <v>7.8523562999999999E-8</v>
@@ -2886,8 +2886,8 @@
       <c r="C106" s="3">
         <v>22.62</v>
       </c>
-      <c r="D106">
-        <v>2.1722440999999999E-8</v>
+      <c r="D106" s="2">
+        <v>8.1752303999999994E-8</v>
       </c>
       <c r="F106" s="2">
         <v>8.1752303999999994E-8</v>
@@ -2909,8 +2909,8 @@
       <c r="C107" s="3">
         <v>22.62</v>
       </c>
-      <c r="D107">
-        <v>2.1769759000000002E-8</v>
+      <c r="D107" s="2">
+        <v>8.9639618999999995E-8</v>
       </c>
       <c r="F107" s="2">
         <v>8.9639618999999995E-8</v>
@@ -2932,8 +2932,8 @@
       <c r="C108" s="3">
         <v>22.62</v>
       </c>
-      <c r="D108">
-        <v>2.187625E-8</v>
+      <c r="D108" s="2">
+        <v>8.9639618999999995E-8</v>
       </c>
       <c r="F108" s="2">
         <v>8.9639618999999995E-8</v>
@@ -2955,8 +2955,8 @@
       <c r="C109" s="3">
         <v>22.62</v>
       </c>
-      <c r="D109">
-        <v>2.2075690999999999E-8</v>
+      <c r="D109" s="2">
+        <v>9.8287887E-8</v>
       </c>
       <c r="F109" s="2">
         <v>9.8287887E-8</v>
@@ -2978,8 +2978,8 @@
       <c r="C110" s="3">
         <v>22.62</v>
       </c>
-      <c r="D110">
-        <v>2.2298110000000001E-8</v>
+      <c r="D110" s="2">
+        <v>9.7723722000000006E-8</v>
       </c>
       <c r="F110" s="2">
         <v>9.7723722000000006E-8</v>
@@ -3001,8 +3001,8 @@
       <c r="C111" s="3">
         <v>22.62</v>
       </c>
-      <c r="D111">
-        <v>2.269954E-8</v>
+      <c r="D111" s="2">
+        <v>1.0715193099999999E-7</v>
       </c>
       <c r="F111" s="2">
         <v>1.0715193099999999E-7</v>
@@ -3024,8 +3024,8 @@
       <c r="C112" s="3">
         <v>22.62</v>
       </c>
-      <c r="D112">
-        <v>2.3245329E-8</v>
+      <c r="D112" s="2">
+        <v>1.10280823E-7</v>
       </c>
       <c r="F112" s="2">
         <v>1.10280823E-7</v>
@@ -3047,8 +3047,8 @@
       <c r="C113" s="3">
         <v>22.62</v>
       </c>
-      <c r="D113">
-        <v>2.3912560999999999E-8</v>
+      <c r="D113" s="2">
+        <v>1.12849594E-7</v>
       </c>
       <c r="F113" s="2">
         <v>1.12849594E-7</v>
@@ -3070,8 +3070,8 @@
       <c r="C114" s="3">
         <v>22.62</v>
       </c>
-      <c r="D114">
-        <v>2.4731101000000001E-8</v>
+      <c r="D114" s="2">
+        <v>1.3182567399999999E-7</v>
       </c>
       <c r="F114" s="2">
         <v>1.3182567399999999E-7</v>
@@ -3093,8 +3093,8 @@
       <c r="C115" s="3">
         <v>22.62</v>
       </c>
-      <c r="D115">
-        <v>2.5441119000000001E-8</v>
+      <c r="D115" s="2">
+        <v>1.2445146100000001E-7</v>
       </c>
       <c r="F115" s="2">
         <v>1.2445146100000001E-7</v>
@@ -3116,8 +3116,8 @@
       <c r="C116" s="3">
         <v>22.62</v>
       </c>
-      <c r="D116">
-        <v>2.651467E-8</v>
+      <c r="D116" s="2">
+        <v>1.3645831399999999E-7</v>
       </c>
       <c r="F116" s="2">
         <v>1.3645831399999999E-7</v>
@@ -3139,8 +3139,8 @@
       <c r="C117" s="3">
         <v>22.62</v>
       </c>
-      <c r="D117">
-        <v>2.7726009999999999E-8</v>
+      <c r="D117" s="2">
+        <v>1.3963683600000001E-7</v>
       </c>
       <c r="F117" s="2">
         <v>1.3963683600000001E-7</v>
@@ -3162,8 +3162,8 @@
       <c r="C118" s="3">
         <v>22.62</v>
       </c>
-      <c r="D118">
-        <v>2.90625E-8</v>
+      <c r="D118" s="2">
+        <v>1.4288939600000001E-7</v>
       </c>
       <c r="F118" s="2">
         <v>1.4288939600000001E-7</v>
@@ -3185,8 +3185,8 @@
       <c r="C119" s="3">
         <v>22.62</v>
       </c>
-      <c r="D119">
-        <v>3.0491079999999997E-8</v>
+      <c r="D119" s="2">
+        <v>1.6125010299999999E-7</v>
       </c>
       <c r="F119" s="2">
         <v>1.6125010299999999E-7</v>
@@ -3208,8 +3208,8 @@
       <c r="C120" s="3">
         <v>22.62</v>
       </c>
-      <c r="D120">
-        <v>3.2004940999999999E-8</v>
+      <c r="D120" s="2">
+        <v>1.55775803E-7</v>
       </c>
       <c r="F120" s="2">
         <v>1.55775803E-7</v>
@@ -3231,8 +3231,8 @@
       <c r="C121" s="3">
         <v>22.62</v>
       </c>
-      <c r="D121">
-        <v>3.3191881000000002E-8</v>
+      <c r="D121" s="2">
+        <v>1.6311729099999999E-7</v>
       </c>
       <c r="F121" s="2">
         <v>1.6311729099999999E-7</v>
@@ -3254,8 +3254,8 @@
       <c r="C122" s="3">
         <v>22.62</v>
       </c>
-      <c r="D122">
-        <v>3.4837310000000002E-8</v>
+      <c r="D122" s="2">
+        <v>1.75792361E-7</v>
       </c>
       <c r="F122" s="2">
         <v>1.75792361E-7</v>
@@ -3277,8 +3277,8 @@
       <c r="C123" s="3">
         <v>22.62</v>
       </c>
-      <c r="D123">
-        <v>3.6564439999999997E-8</v>
+      <c r="D123" s="2">
+        <v>1.7885455299999999E-7</v>
       </c>
       <c r="F123" s="2">
         <v>1.7885455299999999E-7</v>
@@ -3300,8 +3300,8 @@
       <c r="C124" s="3">
         <v>22.62</v>
       </c>
-      <c r="D124">
-        <v>3.8385458000000003E-8</v>
+      <c r="D124" s="2">
+        <v>1.9498446E-7</v>
       </c>
       <c r="F124" s="2">
         <v>1.9498446E-7</v>
@@ -3323,8 +3323,8 @@
       <c r="C125" s="3">
         <v>22.62</v>
       </c>
-      <c r="D125">
-        <v>4.0277211000000002E-8</v>
+      <c r="D125" s="2">
+        <v>1.9498446E-7</v>
       </c>
       <c r="F125" s="2">
         <v>1.9498446E-7</v>
@@ -3346,8 +3346,8 @@
       <c r="C126" s="3">
         <v>22.62</v>
       </c>
-      <c r="D126">
-        <v>4.2279320999999997E-8</v>
+      <c r="D126" s="2">
+        <v>2.25164542E-7</v>
       </c>
       <c r="F126" s="2">
         <v>2.25164542E-7</v>
@@ -3369,8 +3369,8 @@
       <c r="C127" s="3">
         <v>22.62</v>
       </c>
-      <c r="D127">
-        <v>4.3830780999999997E-8</v>
+      <c r="D127" s="2">
+        <v>2.1627185200000001E-7</v>
       </c>
       <c r="F127" s="2">
         <v>2.1627185200000001E-7</v>
@@ -3392,8 +3392,8 @@
       <c r="C128" s="3">
         <v>22.62</v>
       </c>
-      <c r="D128">
-        <v>4.6008999000000002E-8</v>
+      <c r="D128" s="2">
+        <v>2.23872114E-7</v>
       </c>
       <c r="F128" s="2">
         <v>2.23872114E-7</v>
@@ -3415,8 +3415,8 @@
       <c r="C129" s="3">
         <v>22.62</v>
       </c>
-      <c r="D129">
-        <v>4.8290069000000003E-8</v>
+      <c r="D129" s="2">
+        <v>2.6760855900000001E-7</v>
       </c>
       <c r="F129" s="2">
         <v>2.6760855900000001E-7</v>
@@ -3438,8 +3438,8 @@
       <c r="C130" s="3">
         <v>22.62</v>
       </c>
-      <c r="D130">
-        <v>5.0700098000000002E-8</v>
+      <c r="D130" s="2">
+        <v>2.4831331100000002E-7</v>
       </c>
       <c r="F130" s="2">
         <v>2.4831331100000002E-7</v>
@@ -3461,8 +3461,8 @@
       <c r="C131" s="3">
         <v>22.62</v>
       </c>
-      <c r="D131">
-        <v>5.3228209000000002E-8</v>
+      <c r="D131" s="2">
+        <v>2.8510182699999999E-7</v>
       </c>
       <c r="F131" s="2">
         <v>2.8510182699999999E-7</v>
@@ -3484,8 +3484,8 @@
       <c r="C132" s="3">
         <v>22.62</v>
       </c>
-      <c r="D132">
-        <v>5.5202338999999999E-8</v>
+      <c r="D132" s="2">
+        <v>2.7227013099999999E-7</v>
       </c>
       <c r="F132" s="2">
         <v>2.7227013099999999E-7</v>
@@ -3507,8 +3507,8 @@
       <c r="C133" s="3">
         <v>22.62</v>
       </c>
-      <c r="D133">
-        <v>5.7948997999999998E-8</v>
+      <c r="D133" s="2">
+        <v>2.83465363E-7</v>
       </c>
       <c r="F133" s="2">
         <v>2.83465363E-7</v>
@@ -3530,8 +3530,8 @@
       <c r="C134" s="3">
         <v>22.62</v>
       </c>
-      <c r="D134">
-        <v>6.0814408000000002E-8</v>
+      <c r="D134" s="2">
+        <v>3.40800325E-7</v>
       </c>
       <c r="F134" s="2">
         <v>3.40800325E-7</v>
@@ -3553,8 +3553,8 @@
       <c r="C135" s="3">
         <v>22.62</v>
       </c>
-      <c r="D135">
-        <v>6.3831479000000001E-8</v>
+      <c r="D135" s="2">
+        <v>3.1441264200000002E-7</v>
       </c>
       <c r="F135" s="2">
         <v>3.1441264200000002E-7</v>
